--- a/P0004/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0004/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="254" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13C97C42-C2E2-4F19-8DAF-6EDA0A61BEA5}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0004/09_FICHAS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="259" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8194C3-CD9C-4FBE-8AE1-995A344DAC68}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="522">
   <si>
     <t>VARIABLE</t>
   </si>
@@ -156,7 +161,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,7 +176,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -186,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -231,7 +236,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,7 +496,7 @@
     <t>P0004</t>
   </si>
   <si>
-    <t>V0001</t>
+    <t>VR0001</t>
   </si>
   <si>
     <t>V0038</t>
@@ -530,7 +535,7 @@
     <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año específico. Su importancia radica en que identifica las áreas destinadas a la producción agrícola de una especie particular, además de representar un modo clave de actividad económica para los habitantes de la región de La Mojana.</t>
   </si>
   <si>
-    <t>V0002</t>
+    <t>VR0002</t>
   </si>
   <si>
     <t>Año 2018</t>
@@ -545,7 +550,7 @@
     <t>areaha</t>
   </si>
   <si>
-    <t>V0003</t>
+    <t>VR0003</t>
   </si>
   <si>
     <t>Año 2019</t>
@@ -575,7 +580,7 @@
     <t>R0258</t>
   </si>
   <si>
-    <t>V0004</t>
+    <t>VR0004</t>
   </si>
   <si>
     <t>Año 2020</t>
@@ -590,7 +595,7 @@
     <t>R0250</t>
   </si>
   <si>
-    <t>V0005</t>
+    <t>VR0005</t>
   </si>
   <si>
     <t>Año 2022</t>
@@ -605,7 +610,7 @@
     <t>R0252</t>
   </si>
   <si>
-    <t>V0006</t>
+    <t>VR0006</t>
   </si>
   <si>
     <t>Año 2023</t>
@@ -614,7 +619,7 @@
     <t>R0240</t>
   </si>
   <si>
-    <t>V0007</t>
+    <t>VR0007</t>
   </si>
   <si>
     <t>DESCONOCIDO</t>
@@ -623,7 +628,7 @@
     <t>R0242</t>
   </si>
   <si>
-    <t>V0008</t>
+    <t>VR0008</t>
   </si>
   <si>
     <t>m</t>
@@ -635,31 +640,31 @@
     <t>shape_Leng</t>
   </si>
   <si>
-    <t>V0009</t>
+    <t>VR0009</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de algodón. Corresponde al año 2019. </t>
   </si>
   <si>
-    <t>V0010</t>
+    <t>VR0010</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de algodón. Corresponde al año 2020. </t>
   </si>
   <si>
-    <t>V0011</t>
+    <t>VR0011</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo del aguacate Hass. Corresponde al año 2019.  </t>
   </si>
   <si>
-    <t>V0012</t>
+    <t>VR0012</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de las zonas con agricultura familiar. Corresponde al año 2023.   </t>
   </si>
   <si>
-    <t>V0013</t>
+    <t>VR0013</t>
   </si>
   <si>
     <t>m2</t>
@@ -668,28 +673,28 @@
     <t>shape_Area</t>
   </si>
   <si>
-    <t>V0014</t>
-  </si>
-  <si>
-    <t>V0015</t>
+    <t>VR0014</t>
+  </si>
+  <si>
+    <t>VR0015</t>
   </si>
   <si>
     <t>st_area_sh</t>
   </si>
   <si>
-    <t>V0016</t>
-  </si>
-  <si>
-    <t>V0017</t>
-  </si>
-  <si>
-    <t>V0018</t>
-  </si>
-  <si>
-    <t>V0019</t>
-  </si>
-  <si>
-    <t>V0020</t>
+    <t>VR0016</t>
+  </si>
+  <si>
+    <t>VR0017</t>
+  </si>
+  <si>
+    <t>VR0018</t>
+  </si>
+  <si>
+    <t>VR0019</t>
+  </si>
+  <si>
+    <t>VR0020</t>
   </si>
   <si>
     <t>V0126</t>
@@ -719,7 +724,7 @@
     <t xml:space="preserve">Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su importancia radica en que fortalece la gobernanza local, promueve la participación y contribuye a la sostenibilidad social, económica y ambiental de la región y una zona en específico. </t>
   </si>
   <si>
-    <t>V0021</t>
+    <t>VR0021</t>
   </si>
   <si>
     <t>Veredal</t>
@@ -749,13 +754,13 @@
     <t>HMP</t>
   </si>
   <si>
-    <t>V0022</t>
+    <t>VR0022</t>
   </si>
   <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>V0023</t>
+    <t>VR0023</t>
   </si>
   <si>
     <t>Ha_Predio</t>
@@ -764,19 +769,19 @@
     <t>Ha</t>
   </si>
   <si>
-    <t>V0024</t>
+    <t>VR0024</t>
   </si>
   <si>
     <t>Shape_Length</t>
   </si>
   <si>
-    <t>V0025</t>
+    <t>VR0025</t>
   </si>
   <si>
     <t>Shape_Area</t>
   </si>
   <si>
-    <t>V0026</t>
+    <t>VR0026</t>
   </si>
   <si>
     <t>V0127</t>
@@ -791,7 +796,7 @@
     <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Evaluar la calidad del hábitat es fundamental para la conservación de la biodiversidad, la planificación del uso del suelo y el desarrollo de estrategias de manejo sostenible en diferentes ecosistemas.</t>
   </si>
   <si>
-    <t>V0027</t>
+    <t>VR0027</t>
   </si>
   <si>
     <t>R0234</t>
@@ -812,7 +817,7 @@
     </r>
   </si>
   <si>
-    <t>V0028</t>
+    <t>VR0028</t>
   </si>
   <si>
     <t>Ton/ha</t>
@@ -821,7 +826,7 @@
     <t>R0232</t>
   </si>
   <si>
-    <t>V0029</t>
+    <t>VR0029</t>
   </si>
   <si>
     <t>dg/kg</t>
@@ -833,7 +838,7 @@
     <t>R0233</t>
   </si>
   <si>
-    <t>V0030</t>
+    <t>VR0030</t>
   </si>
   <si>
     <t>V0044</t>
@@ -860,7 +865,7 @@
     </r>
   </si>
   <si>
-    <t>V0031</t>
+    <t>VR0031</t>
   </si>
   <si>
     <t>R0227</t>
@@ -884,7 +889,7 @@
     <t>R0235</t>
   </si>
   <si>
-    <t>V0032</t>
+    <t>VR0032</t>
   </si>
   <si>
     <t>Unidades</t>
@@ -893,19 +898,22 @@
     <t>Plantas_Sembradas</t>
   </si>
   <si>
-    <t>V0033</t>
-  </si>
-  <si>
-    <t>V0034</t>
-  </si>
-  <si>
-    <t>V0035</t>
-  </si>
-  <si>
-    <t>V0036</t>
-  </si>
-  <si>
-    <t>V0037</t>
+    <t>VR0033</t>
+  </si>
+  <si>
+    <t>VR0034</t>
+  </si>
+  <si>
+    <t>VR0035</t>
+  </si>
+  <si>
+    <t>VR0036</t>
+  </si>
+  <si>
+    <t>VR0037</t>
+  </si>
+  <si>
+    <t>VR0038</t>
   </si>
   <si>
     <t>ÁREA_ha</t>
@@ -914,61 +922,67 @@
     <t>Area_ha</t>
   </si>
   <si>
-    <t>V0039</t>
-  </si>
-  <si>
-    <t>V0040</t>
+    <t>VR0039</t>
+  </si>
+  <si>
+    <t>VR0040</t>
+  </si>
+  <si>
+    <t>VR0041</t>
+  </si>
+  <si>
+    <t>VR0042</t>
+  </si>
+  <si>
+    <t>VR0043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta columna hace referencia al perímetro.  </t>
+  </si>
+  <si>
+    <t>SHAPE_Leng</t>
+  </si>
+  <si>
+    <t>Shape_Le_1</t>
+  </si>
+  <si>
+    <t>Shape_Leng</t>
+  </si>
+  <si>
+    <t>VR0044</t>
+  </si>
+  <si>
+    <t>Shape_Le_2</t>
+  </si>
+  <si>
+    <t>VR0045</t>
+  </si>
+  <si>
+    <t>VR0046</t>
+  </si>
+  <si>
+    <t>VR0047</t>
+  </si>
+  <si>
+    <t>VR0048</t>
+  </si>
+  <si>
+    <t>VR0049</t>
+  </si>
+  <si>
+    <t>VR0050</t>
+  </si>
+  <si>
+    <t>VR0051</t>
+  </si>
+  <si>
+    <t>VR0052</t>
+  </si>
+  <si>
+    <t>VR0053</t>
   </si>
   <si>
     <t>V0041</t>
-  </si>
-  <si>
-    <t>V0042</t>
-  </si>
-  <si>
-    <t>V0043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta columna hace referencia al perímetro.  </t>
-  </si>
-  <si>
-    <t>SHAPE_Leng</t>
-  </si>
-  <si>
-    <t>Shape_Le_1</t>
-  </si>
-  <si>
-    <t>Shape_Leng</t>
-  </si>
-  <si>
-    <t>Shape_Le_2</t>
-  </si>
-  <si>
-    <t>V0045</t>
-  </si>
-  <si>
-    <t>V0046</t>
-  </si>
-  <si>
-    <t>V0047</t>
-  </si>
-  <si>
-    <t>V0048</t>
-  </si>
-  <si>
-    <t>V0049</t>
-  </si>
-  <si>
-    <t>V0050</t>
-  </si>
-  <si>
-    <t>V0051</t>
-  </si>
-  <si>
-    <t>V0052</t>
-  </si>
-  <si>
-    <t>V0053</t>
   </si>
   <si>
     <t>Conectividad ecológica</t>
@@ -995,19 +1009,19 @@
     </r>
   </si>
   <si>
-    <t>V0054</t>
-  </si>
-  <si>
-    <t>V0055</t>
-  </si>
-  <si>
-    <t>V0056</t>
-  </si>
-  <si>
-    <t>V0057</t>
-  </si>
-  <si>
-    <t>V0058</t>
+    <t>VR0054</t>
+  </si>
+  <si>
+    <t>VR0055</t>
+  </si>
+  <si>
+    <t>VR0056</t>
+  </si>
+  <si>
+    <t>VR0057</t>
+  </si>
+  <si>
+    <t>VR0058</t>
   </si>
   <si>
     <t>V0128</t>
@@ -1034,16 +1048,13 @@
     </r>
   </si>
   <si>
-    <t>V0059</t>
+    <t>VR0059</t>
   </si>
   <si>
     <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Su análisis es clave para la gestión ambiental, la conservación de los ecosistemas y la organización del espacio en función de las necesidades económicas, sociales y ecológicas de una región. En este caso particular, está enfocada en los acuerdos comunitarios firmados en una zona en específico.</t>
   </si>
   <si>
-    <t>V0060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localización </t>
+    <t>VR0060</t>
   </si>
   <si>
     <t>Esta variable hace referencia a la ubicación geográfica o espacial de un objeto, persona, o entidad dentro de un determinado contexto. Dependiendo del ámbito de aplicación, esta variable puede incluir coordenadas específicas como latitud y longitud, una dirección física, un nombre o incluso una región más amplia, como una ciudad, departamento o país.</t>
@@ -1058,7 +1069,7 @@
     <t>Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Es clave para contextos que involucran geolocalización, análisis de datos espaciales o servicios basados en la ubicación. En este caso particular, esta variable es fundamental porque permite identificar nombres propios de veredas, municipios, cuerpos de agua, acuerdos comunitarios, entre otros.</t>
   </si>
   <si>
-    <t>V0061</t>
+    <t>VR0061</t>
   </si>
   <si>
     <t>Cod_Predio</t>
@@ -1067,7 +1078,7 @@
     <t>Macrohabitat</t>
   </si>
   <si>
-    <t>V0062</t>
+    <t>VR0062</t>
   </si>
   <si>
     <t>Depto</t>
@@ -1079,19 +1090,19 @@
     <t>municipio</t>
   </si>
   <si>
-    <t>V0063</t>
-  </si>
-  <si>
-    <t>V0064</t>
+    <t>VR0063</t>
+  </si>
+  <si>
+    <t>VR0064</t>
   </si>
   <si>
     <t>nombre</t>
   </si>
   <si>
-    <t>V0065</t>
-  </si>
-  <si>
-    <t>V0066</t>
+    <t>VR0065</t>
+  </si>
+  <si>
+    <t>VR0066</t>
   </si>
   <si>
     <t xml:space="preserve">Regional </t>
@@ -1100,7 +1111,7 @@
     <t>Departamento</t>
   </si>
   <si>
-    <t>V0067</t>
+    <t>VR0067</t>
   </si>
   <si>
     <t>CodigoPredio</t>
@@ -1118,7 +1129,7 @@
     <t>Codigo_Predio</t>
   </si>
   <si>
-    <t>V0068</t>
+    <t>VR0068</t>
   </si>
   <si>
     <t>V0129</t>
@@ -1145,13 +1156,13 @@
     </r>
   </si>
   <si>
-    <t>V0069</t>
-  </si>
-  <si>
-    <t>V0070</t>
-  </si>
-  <si>
-    <t>V0071</t>
+    <t>VR0069</t>
+  </si>
+  <si>
+    <t>VR0070</t>
+  </si>
+  <si>
+    <t>VR0071</t>
   </si>
   <si>
     <t>V0130</t>
@@ -1166,7 +1177,10 @@
     <t xml:space="preserve">Esta variable fue determinada en el proyecto Mojana Clima y Vida para un año en específico. Establece que un alto nivel de organización comunitaria suele estar asociado con una mayor capacidad de respuesta ante desafíos, fortalecimiento del tejido social y desarrollo sostenible, mientras que un bajo nivel puede reflejar fragmentación, desconfianza o falta de liderazgo. En este caso particular, esta variable es fundamental porque permite identificar los acuerdos comunitarios firmados en una zona específica de la región de La Mojana.   </t>
   </si>
   <si>
-    <t>V0072</t>
+    <t>VR0072</t>
+  </si>
+  <si>
+    <t>V0018</t>
   </si>
   <si>
     <t>Sedimentos</t>
@@ -1193,13 +1207,16 @@
     </r>
   </si>
   <si>
-    <t>V0073</t>
-  </si>
-  <si>
-    <t>V0074</t>
-  </si>
-  <si>
-    <t>V0075</t>
+    <t>VR0073</t>
+  </si>
+  <si>
+    <t>VR0074</t>
+  </si>
+  <si>
+    <t>VR0075</t>
+  </si>
+  <si>
+    <t>V0021</t>
   </si>
   <si>
     <t>Topografía</t>
@@ -1229,25 +1246,25 @@
     </r>
   </si>
   <si>
-    <t>V0076</t>
+    <t>VR0076</t>
   </si>
   <si>
     <t>R0238</t>
   </si>
   <si>
-    <t>V0077</t>
-  </si>
-  <si>
-    <t>V0078</t>
-  </si>
-  <si>
-    <t>V0079</t>
-  </si>
-  <si>
-    <t>V0080</t>
-  </si>
-  <si>
-    <t>V0081</t>
+    <t>VR0077</t>
+  </si>
+  <si>
+    <t>VR0078</t>
+  </si>
+  <si>
+    <t>VR0079</t>
+  </si>
+  <si>
+    <t>VR0080</t>
+  </si>
+  <si>
+    <t>VR0081</t>
   </si>
   <si>
     <t>V0131</t>
@@ -1277,22 +1294,22 @@
     </r>
   </si>
   <si>
-    <t>V0082</t>
+    <t>VR0082</t>
   </si>
   <si>
     <t>tipo_tierr</t>
   </si>
   <si>
-    <t>V0083</t>
-  </si>
-  <si>
-    <t>V0084</t>
-  </si>
-  <si>
-    <t>V0085</t>
-  </si>
-  <si>
-    <t>V0086</t>
+    <t>VR0083</t>
+  </si>
+  <si>
+    <t>VR0084</t>
+  </si>
+  <si>
+    <t>VR0085</t>
+  </si>
+  <si>
+    <t>VR0086</t>
   </si>
   <si>
     <t>COD_SWAT</t>
@@ -1301,37 +1318,37 @@
     <t>USOS_RECOM</t>
   </si>
   <si>
-    <t>V0087</t>
-  </si>
-  <si>
-    <t>V0088</t>
-  </si>
-  <si>
-    <t>V0089</t>
-  </si>
-  <si>
-    <t>V0090</t>
-  </si>
-  <si>
-    <t>V0091</t>
-  </si>
-  <si>
-    <t>V0092</t>
-  </si>
-  <si>
-    <t>V0093</t>
-  </si>
-  <si>
-    <t>V0094</t>
-  </si>
-  <si>
-    <t>V0095</t>
-  </si>
-  <si>
-    <t>V0096</t>
-  </si>
-  <si>
-    <t>V0097</t>
+    <t>VR0087</t>
+  </si>
+  <si>
+    <t>VR0088</t>
+  </si>
+  <si>
+    <t>VR0089</t>
+  </si>
+  <si>
+    <t>VR0090</t>
+  </si>
+  <si>
+    <t>VR0091</t>
+  </si>
+  <si>
+    <t>VR0092</t>
+  </si>
+  <si>
+    <t>VR0093</t>
+  </si>
+  <si>
+    <t>VR0094</t>
+  </si>
+  <si>
+    <t>VR0095</t>
+  </si>
+  <si>
+    <t>VR0096</t>
+  </si>
+  <si>
+    <t>VR0097</t>
   </si>
   <si>
     <t>R0236</t>
@@ -1340,25 +1357,25 @@
     <t>R0239</t>
   </si>
   <si>
-    <t>V0098</t>
-  </si>
-  <si>
-    <t>V0099</t>
-  </si>
-  <si>
-    <t>V0100</t>
-  </si>
-  <si>
-    <t>V0101</t>
-  </si>
-  <si>
-    <t>V0102</t>
-  </si>
-  <si>
-    <t>V0103</t>
-  </si>
-  <si>
-    <t>V0104</t>
+    <t>VR0098</t>
+  </si>
+  <si>
+    <t>VR0099</t>
+  </si>
+  <si>
+    <t>VR0100</t>
+  </si>
+  <si>
+    <t>VR0101</t>
+  </si>
+  <si>
+    <t>VR0102</t>
+  </si>
+  <si>
+    <t>VR0103</t>
+  </si>
+  <si>
+    <t>VR0104</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de arroz. Corresponde al año 2019.   </t>
@@ -1367,103 +1384,112 @@
     <t>st_length_</t>
   </si>
   <si>
-    <t>V0105</t>
+    <t>VR0105</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de caña para panela. Corresponde al año 2020.   </t>
   </si>
   <si>
-    <t>V0106</t>
+    <t>VR0106</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de mango. Corresponde al año 2019.   </t>
   </si>
   <si>
-    <t>V0107</t>
+    <t>VR0107</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de maracuyá. Corresponde al año 2020.   </t>
   </si>
   <si>
-    <t>V0108</t>
+    <t>VR0108</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de maíz. Corresponde al año 2022.   </t>
   </si>
   <si>
-    <t>V0109</t>
+    <t>VR0109</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de papaya. Corresponde al año 2019.    </t>
   </si>
   <si>
-    <t>V0110</t>
+    <t>VR0110</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de pimentón. Corresponde al año 2019. </t>
   </si>
   <si>
-    <t>V0111</t>
+    <t>VR0111</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de piña. Corresponde al año 2019. </t>
   </si>
   <si>
-    <t>V0112</t>
+    <t>VR0112</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo de soya. Corresponde al año 2022.   </t>
   </si>
   <si>
-    <t>V0113</t>
-  </si>
-  <si>
-    <t>V0114</t>
+    <t>VR0113</t>
+  </si>
+  <si>
+    <t>VR0114</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo del cacao. Corresponde al año 2019.  </t>
   </si>
   <si>
-    <t>V0115</t>
+    <t>VR0115</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de cada zona con aptitud para el cultivo forestal. Corresponde al año 2014.    </t>
   </si>
   <si>
-    <t>V0116</t>
-  </si>
-  <si>
-    <t>V0117</t>
+    <t>VR0116</t>
+  </si>
+  <si>
+    <t>VR0117</t>
   </si>
   <si>
     <t xml:space="preserve">Esta capa hace referencia al perímetro de las áreas potenciales para la adecuación de tierras. Corresponde al año 2018.   </t>
   </si>
   <si>
-    <t>V0118</t>
-  </si>
-  <si>
-    <t>V0119</t>
-  </si>
-  <si>
-    <t>V0120</t>
-  </si>
-  <si>
-    <t>V0121</t>
-  </si>
-  <si>
-    <t>V0122</t>
-  </si>
-  <si>
-    <t>V0123</t>
-  </si>
-  <si>
-    <t>V0124</t>
-  </si>
-  <si>
-    <t>V0125</t>
+    <t>VR0118</t>
+  </si>
+  <si>
+    <t>VR0119</t>
+  </si>
+  <si>
+    <t>VR0120</t>
+  </si>
+  <si>
+    <t>VR0121</t>
+  </si>
+  <si>
+    <t>VR0122</t>
+  </si>
+  <si>
+    <t>VR0123</t>
+  </si>
+  <si>
+    <t>VR0124</t>
+  </si>
+  <si>
+    <t>VR0125</t>
+  </si>
+  <si>
+    <t>VR0126</t>
+  </si>
+  <si>
+    <t>VR0127</t>
   </si>
   <si>
     <t>SHAPE_Area</t>
+  </si>
+  <si>
+    <t>VR0128</t>
   </si>
   <si>
     <t>Instantanea</t>
@@ -1728,7 +1754,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1745,14 +1771,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1760,34 +1786,34 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0C769E"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0C769E"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1795,7 +1821,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2173,6 +2199,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2185,9 +2213,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2497,7 +2523,7 @@
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
@@ -2505,7 +2531,7 @@
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2519,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -2543,7 +2569,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
@@ -2557,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
@@ -2571,7 +2597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
@@ -2585,7 +2611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="43.5">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2625,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -2613,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
@@ -2627,7 +2653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>24</v>
       </c>
@@ -2641,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>27</v>
       </c>
@@ -2655,7 +2681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="144.75">
+    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
@@ -2669,7 +2695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
@@ -2683,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.25">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>34</v>
       </c>
@@ -2693,153 +2719,153 @@
       <c r="C14" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
       <c r="B15" s="38"/>
       <c r="C15" s="57"/>
-      <c r="D15" s="63"/>
+      <c r="D15" s="65"/>
     </row>
-    <row r="16" spans="1:4" ht="72.75">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
       <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="57"/>
-      <c r="D16" s="63"/>
+      <c r="D16" s="65"/>
     </row>
-    <row r="17" spans="1:4" ht="115.5">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
       <c r="B17" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="63"/>
+      <c r="D17" s="65"/>
     </row>
-    <row r="18" spans="1:4" ht="57.75">
+    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="41" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="64"/>
+      <c r="D18" s="66"/>
     </row>
-    <row r="19" spans="1:4" ht="29.25">
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="65"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
       <c r="B21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
-    <row r="22" spans="1:4" ht="43.5">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
       <c r="B22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
       <c r="B23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
     </row>
-    <row r="24" spans="1:4" ht="130.5">
+    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
       <c r="B26" s="38"/>
-      <c r="C26" s="67"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
       <c r="B27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="67"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:4" ht="57.75">
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="63"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="64" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="64"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2879,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
       <c r="B32" s="58"/>
       <c r="C32" s="60"/>
@@ -2861,29 +2887,29 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="55" t="s">
         <v>59</v>
       </c>
       <c r="B33" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
       <c r="B34" s="58"/>
-      <c r="C34" s="68"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2919,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -2903,7 +2929,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>65</v>
       </c>
@@ -2913,7 +2939,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -2923,7 +2949,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2933,7 +2959,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2943,7 +2969,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
@@ -2953,7 +2979,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>75</v>
       </c>
@@ -2963,7 +2989,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>76</v>
       </c>
@@ -2973,7 +2999,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>77</v>
       </c>
@@ -2983,7 +3009,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>78</v>
       </c>
@@ -2993,7 +3019,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>79</v>
       </c>
@@ -3003,7 +3029,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>80</v>
       </c>
@@ -3013,7 +3039,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>81</v>
       </c>
@@ -3023,7 +3049,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>82</v>
       </c>
@@ -3033,7 +3059,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>83</v>
       </c>
@@ -3043,7 +3069,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>84</v>
       </c>
@@ -3053,7 +3079,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>85</v>
       </c>
@@ -3063,7 +3089,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>86</v>
       </c>
@@ -3073,7 +3099,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>87</v>
       </c>
@@ -3083,7 +3109,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>88</v>
       </c>
@@ -3093,7 +3119,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>89</v>
       </c>
@@ -3103,7 +3129,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>90</v>
       </c>
@@ -3113,7 +3139,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
@@ -3123,7 +3149,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>92</v>
       </c>
@@ -3133,7 +3159,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>93</v>
       </c>
@@ -3143,7 +3169,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>94</v>
       </c>
@@ -3153,7 +3179,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>95</v>
       </c>
@@ -3163,7 +3189,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>96</v>
       </c>
@@ -3173,7 +3199,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>97</v>
       </c>
@@ -3183,7 +3209,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>98</v>
       </c>
@@ -3193,7 +3219,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>99</v>
       </c>
@@ -3203,7 +3229,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>100</v>
       </c>
@@ -3213,7 +3239,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>101</v>
       </c>
@@ -3223,7 +3249,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>102</v>
       </c>
@@ -3233,7 +3259,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>103</v>
       </c>
@@ -3243,7 +3269,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>104</v>
       </c>
@@ -3253,7 +3279,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>105</v>
       </c>
@@ -3263,7 +3289,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>106</v>
       </c>
@@ -3273,7 +3299,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>107</v>
       </c>
@@ -3283,7 +3309,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>108</v>
       </c>
@@ -3293,7 +3319,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>109</v>
       </c>
@@ -3303,7 +3329,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>110</v>
       </c>
@@ -3313,7 +3339,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>111</v>
       </c>
@@ -3323,7 +3349,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>112</v>
       </c>
@@ -3333,7 +3359,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>113</v>
       </c>
@@ -3343,7 +3369,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>114</v>
       </c>
@@ -3353,7 +3379,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>115</v>
       </c>
@@ -3363,7 +3389,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>116</v>
       </c>
@@ -3373,7 +3399,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>117</v>
       </c>
@@ -3383,7 +3409,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>118</v>
       </c>
@@ -3393,7 +3419,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>119</v>
       </c>
@@ -3403,7 +3429,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>120</v>
       </c>
@@ -3413,7 +3439,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>121</v>
       </c>
@@ -3423,7 +3449,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>122</v>
       </c>
@@ -3433,7 +3459,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>123</v>
       </c>
@@ -3443,7 +3469,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>124</v>
       </c>
@@ -3453,7 +3479,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>125</v>
       </c>
@@ -3463,7 +3489,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>126</v>
       </c>
@@ -3473,7 +3499,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>127</v>
       </c>
@@ -3483,7 +3509,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>128</v>
       </c>
@@ -3493,7 +3519,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>129</v>
       </c>
@@ -3503,7 +3529,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>130</v>
       </c>
@@ -3513,7 +3539,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>131</v>
       </c>
@@ -3556,15 +3582,15 @@
   <dimension ref="A1:CD129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77:F81"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -3572,7 +3598,7 @@
     <col min="11" max="11" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +3846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4068,7 +4094,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4316,7 +4342,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -4564,7 +4590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4812,7 +4838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -5060,7 +5086,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -5308,7 +5334,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -5556,7 +5582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -6052,7 +6078,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -6300,7 +6326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -6548,7 +6574,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6796,7 +6822,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -7044,7 +7070,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -7292,7 +7318,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7540,7 +7566,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -7788,7 +7814,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8036,7 +8062,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -8284,7 +8310,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -8532,7 +8558,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -8780,7 +8806,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -9028,7 +9054,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -9276,7 +9302,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -9524,7 +9550,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -9772,7 +9798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -10020,7 +10046,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -10268,7 +10294,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -10516,7 +10542,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -10764,7 +10790,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -11012,7 +11038,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -11260,7 +11286,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -11508,7 +11534,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -11756,7 +11782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -12004,7 +12030,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -12252,7 +12278,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -12500,7 +12526,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:82">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -12748,7 +12774,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:82">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -12996,12 +13022,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:82">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>267</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>247</v>
@@ -13043,7 +13069,7 @@
         <v>252</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39" t="s">
         <v>17</v>
@@ -13064,7 +13090,7 @@
         <v>255</v>
       </c>
       <c r="W39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>17</v>
@@ -13085,7 +13111,7 @@
         <v>256</v>
       </c>
       <c r="AD39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE39" t="s">
         <v>17</v>
@@ -13106,7 +13132,7 @@
         <v>257</v>
       </c>
       <c r="AK39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s">
         <v>17</v>
@@ -13127,7 +13153,7 @@
         <v>258</v>
       </c>
       <c r="AR39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AS39" t="s">
         <v>17</v>
@@ -13148,7 +13174,7 @@
         <v>258</v>
       </c>
       <c r="AY39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AZ39" t="s">
         <v>17</v>
@@ -13244,12 +13270,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:82">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>247</v>
@@ -13492,12 +13518,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:82">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>247</v>
@@ -13740,12 +13766,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:82">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="52" t="s">
         <v>247</v>
@@ -13988,12 +14014,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:82">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>135</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C43" s="52" t="s">
         <v>247</v>
@@ -14236,12 +14262,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:82">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C44" s="52" t="s">
         <v>247</v>
@@ -14268,7 +14294,7 @@
         <v>143</v>
       </c>
       <c r="K44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L44" t="s">
         <v>17</v>
@@ -14283,7 +14309,7 @@
         <v>252</v>
       </c>
       <c r="P44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q44" t="s">
         <v>17</v>
@@ -14304,7 +14330,7 @@
         <v>252</v>
       </c>
       <c r="W44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X44" t="s">
         <v>17</v>
@@ -14325,7 +14351,7 @@
         <v>255</v>
       </c>
       <c r="AD44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE44" t="s">
         <v>17</v>
@@ -14346,7 +14372,7 @@
         <v>255</v>
       </c>
       <c r="AK44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s">
         <v>17</v>
@@ -14367,7 +14393,7 @@
         <v>256</v>
       </c>
       <c r="AR44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AS44" t="s">
         <v>17</v>
@@ -14388,7 +14414,7 @@
         <v>256</v>
       </c>
       <c r="AY44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AZ44" t="s">
         <v>17</v>
@@ -14409,7 +14435,7 @@
         <v>257</v>
       </c>
       <c r="BF44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG44" t="s">
         <v>17</v>
@@ -14430,7 +14456,7 @@
         <v>257</v>
       </c>
       <c r="BM44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BN44" t="s">
         <v>17</v>
@@ -14451,7 +14477,7 @@
         <v>258</v>
       </c>
       <c r="BT44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BU44" t="s">
         <v>17</v>
@@ -14472,7 +14498,7 @@
         <v>258</v>
       </c>
       <c r="CA44" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CB44" t="s">
         <v>17</v>
@@ -14484,12 +14510,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:82">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C45" s="52" t="s">
         <v>247</v>
@@ -14516,7 +14542,7 @@
         <v>143</v>
       </c>
       <c r="K45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s">
         <v>17</v>
@@ -14531,7 +14557,7 @@
         <v>258</v>
       </c>
       <c r="P45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q45" t="s">
         <v>17</v>
@@ -14732,12 +14758,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:82">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C46" s="52" t="s">
         <v>247</v>
@@ -14980,12 +15006,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:82">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>135</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>247</v>
@@ -15228,12 +15254,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:82">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C48" s="52" t="s">
         <v>247</v>
@@ -15476,12 +15502,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:82">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C49" s="52" t="s">
         <v>247</v>
@@ -15724,12 +15750,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:82">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C50" s="52" t="s">
         <v>247</v>
@@ -15972,12 +15998,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:82">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C51" s="52" t="s">
         <v>247</v>
@@ -16220,12 +16246,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:82">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>247</v>
@@ -16468,12 +16494,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:82">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>247</v>
@@ -16716,24 +16742,24 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:82">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D54" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G54" t="s">
         <v>206</v>
@@ -16763,7 +16789,7 @@
         <v>220</v>
       </c>
       <c r="P54" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q54" t="s">
         <v>17</v>
@@ -16961,27 +16987,27 @@
         <v>17</v>
       </c>
       <c r="CD54" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:82">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>135</v>
       </c>
       <c r="B55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
         <v>292</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="D55" t="s">
-        <v>288</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" t="s">
-        <v>289</v>
       </c>
       <c r="G55" t="s">
         <v>140</v>
@@ -17209,27 +17235,27 @@
         <v>17</v>
       </c>
       <c r="CD55" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:82">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D56" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E56" t="s">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G56" t="s">
         <v>140</v>
@@ -17457,27 +17483,27 @@
         <v>17</v>
       </c>
       <c r="CD56" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:82">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E57" t="s">
         <v>17</v>
       </c>
       <c r="F57" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G57" t="s">
         <v>140</v>
@@ -17705,27 +17731,27 @@
         <v>17</v>
       </c>
       <c r="CD57" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:82">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D58" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E58" t="s">
         <v>17</v>
       </c>
       <c r="F58" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G58" t="s">
         <v>140</v>
@@ -17953,27 +17979,27 @@
         <v>17</v>
       </c>
       <c r="CD58" s="54" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:82">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D59" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G59" t="s">
         <v>206</v>
@@ -18201,27 +18227,27 @@
         <v>17</v>
       </c>
       <c r="CD59" s="54" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:82">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>135</v>
       </c>
       <c r="B60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" t="s">
         <v>301</v>
       </c>
-      <c r="C60" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" t="s">
-        <v>298</v>
-      </c>
       <c r="E60" t="s">
         <v>17</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G60" t="s">
         <v>140</v>
@@ -18449,27 +18475,27 @@
         <v>17</v>
       </c>
       <c r="CD60" s="54" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:82">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>135</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G61" t="s">
         <v>206</v>
@@ -18478,7 +18504,7 @@
         <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J61" t="s">
         <v>143</v>
@@ -18499,7 +18525,7 @@
         <v>216</v>
       </c>
       <c r="P61" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q61" t="s">
         <v>17</v>
@@ -18697,27 +18723,27 @@
         <v>17</v>
       </c>
       <c r="CD61" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:82">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G62" t="s">
         <v>206</v>
@@ -18747,7 +18773,7 @@
         <v>208</v>
       </c>
       <c r="P62" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q62" t="s">
         <v>17</v>
@@ -18768,7 +18794,7 @@
         <v>208</v>
       </c>
       <c r="W62" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="X62" t="s">
         <v>17</v>
@@ -18945,27 +18971,27 @@
         <v>17</v>
       </c>
       <c r="CD62" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:82">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G63" t="s">
         <v>206</v>
@@ -18995,7 +19021,7 @@
         <v>252</v>
       </c>
       <c r="P63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q63" t="s">
         <v>17</v>
@@ -19016,7 +19042,7 @@
         <v>255</v>
       </c>
       <c r="W63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="X63" t="s">
         <v>17</v>
@@ -19037,7 +19063,7 @@
         <v>256</v>
       </c>
       <c r="AD63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AE63" t="s">
         <v>17</v>
@@ -19058,7 +19084,7 @@
         <v>257</v>
       </c>
       <c r="AK63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL63" t="s">
         <v>17</v>
@@ -19079,7 +19105,7 @@
         <v>258</v>
       </c>
       <c r="AR63" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AS63" t="s">
         <v>17</v>
@@ -19100,7 +19126,7 @@
         <v>176</v>
       </c>
       <c r="AY63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AZ63" t="s">
         <v>17</v>
@@ -19121,7 +19147,7 @@
         <v>176</v>
       </c>
       <c r="BF63" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BG63" t="s">
         <v>17</v>
@@ -19142,7 +19168,7 @@
         <v>156</v>
       </c>
       <c r="BM63" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BN63" t="s">
         <v>17</v>
@@ -19163,7 +19189,7 @@
         <v>156</v>
       </c>
       <c r="BT63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU63" t="s">
         <v>17</v>
@@ -19184,7 +19210,7 @@
         <v>179</v>
       </c>
       <c r="CA63" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="CB63" t="s">
         <v>17</v>
@@ -19193,27 +19219,27 @@
         <v>17</v>
       </c>
       <c r="CD63" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:82">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G64" t="s">
         <v>206</v>
@@ -19243,7 +19269,7 @@
         <v>179</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q64" t="s">
         <v>17</v>
@@ -19264,7 +19290,7 @@
         <v>166</v>
       </c>
       <c r="W64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="X64" t="s">
         <v>17</v>
@@ -19285,7 +19311,7 @@
         <v>166</v>
       </c>
       <c r="AD64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AE64" t="s">
         <v>17</v>
@@ -19306,7 +19332,7 @@
         <v>157</v>
       </c>
       <c r="AK64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL64" t="s">
         <v>17</v>
@@ -19327,7 +19353,7 @@
         <v>157</v>
       </c>
       <c r="AR64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AS64" t="s">
         <v>17</v>
@@ -19348,7 +19374,7 @@
         <v>158</v>
       </c>
       <c r="AY64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AZ64" t="s">
         <v>17</v>
@@ -19369,7 +19395,7 @@
         <v>158</v>
       </c>
       <c r="BF64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BG64" t="s">
         <v>17</v>
@@ -19390,7 +19416,7 @@
         <v>167</v>
       </c>
       <c r="BM64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BN64" t="s">
         <v>17</v>
@@ -19411,7 +19437,7 @@
         <v>167</v>
       </c>
       <c r="BT64" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU64" t="s">
         <v>17</v>
@@ -19432,7 +19458,7 @@
         <v>171</v>
       </c>
       <c r="CA64" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="CB64" t="s">
         <v>17</v>
@@ -19441,27 +19467,27 @@
         <v>17</v>
       </c>
       <c r="CD64" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="65" spans="1:82">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E65" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G65" t="s">
         <v>206</v>
@@ -19491,7 +19517,7 @@
         <v>171</v>
       </c>
       <c r="P65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q65" t="s">
         <v>17</v>
@@ -19512,7 +19538,7 @@
         <v>159</v>
       </c>
       <c r="W65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X65" t="s">
         <v>17</v>
@@ -19533,7 +19559,7 @@
         <v>159</v>
       </c>
       <c r="AD65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AE65" t="s">
         <v>17</v>
@@ -19554,7 +19580,7 @@
         <v>168</v>
       </c>
       <c r="AK65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s">
         <v>17</v>
@@ -19575,7 +19601,7 @@
         <v>168</v>
       </c>
       <c r="AR65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AS65" t="s">
         <v>17</v>
@@ -19596,7 +19622,7 @@
         <v>172</v>
       </c>
       <c r="AY65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AZ65" t="s">
         <v>17</v>
@@ -19617,7 +19643,7 @@
         <v>172</v>
       </c>
       <c r="BF65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BG65" t="s">
         <v>17</v>
@@ -19638,7 +19664,7 @@
         <v>173</v>
       </c>
       <c r="BM65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BN65" t="s">
         <v>17</v>
@@ -19659,7 +19685,7 @@
         <v>173</v>
       </c>
       <c r="BT65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BU65" t="s">
         <v>17</v>
@@ -19680,7 +19706,7 @@
         <v>152</v>
       </c>
       <c r="CA65" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CB65" t="s">
         <v>17</v>
@@ -19689,27 +19715,27 @@
         <v>17</v>
       </c>
       <c r="CD65" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:82">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G66" t="s">
         <v>206</v>
@@ -19739,7 +19765,7 @@
         <v>160</v>
       </c>
       <c r="P66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q66" t="s">
         <v>17</v>
@@ -19760,7 +19786,7 @@
         <v>160</v>
       </c>
       <c r="W66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="X66" t="s">
         <v>17</v>
@@ -19781,7 +19807,7 @@
         <v>161</v>
       </c>
       <c r="AD66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AE66" t="s">
         <v>17</v>
@@ -19802,7 +19828,7 @@
         <v>161</v>
       </c>
       <c r="AK66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL66" t="s">
         <v>17</v>
@@ -19823,7 +19849,7 @@
         <v>162</v>
       </c>
       <c r="AR66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AS66" t="s">
         <v>17</v>
@@ -19844,7 +19870,7 @@
         <v>162</v>
       </c>
       <c r="AY66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AZ66" t="s">
         <v>17</v>
@@ -19865,7 +19891,7 @@
         <v>163</v>
       </c>
       <c r="BF66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="BG66" t="s">
         <v>17</v>
@@ -19886,7 +19912,7 @@
         <v>163</v>
       </c>
       <c r="BM66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="BN66" t="s">
         <v>17</v>
@@ -19937,27 +19963,27 @@
         <v>17</v>
       </c>
       <c r="CD66" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:82">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G67" t="s">
         <v>206</v>
@@ -19966,7 +19992,7 @@
         <v>178</v>
       </c>
       <c r="I67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J67" t="s">
         <v>143</v>
@@ -19987,7 +20013,7 @@
         <v>216</v>
       </c>
       <c r="P67" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q67" t="s">
         <v>17</v>
@@ -20185,27 +20211,27 @@
         <v>17</v>
       </c>
       <c r="CD67" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="68" spans="1:82">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>519</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G68" t="s">
         <v>206</v>
@@ -20235,7 +20261,7 @@
         <v>214</v>
       </c>
       <c r="P68" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q68" t="s">
         <v>17</v>
@@ -20256,7 +20282,7 @@
         <v>216</v>
       </c>
       <c r="W68" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X68" t="s">
         <v>17</v>
@@ -20277,7 +20303,7 @@
         <v>216</v>
       </c>
       <c r="AD68" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AE68" t="s">
         <v>17</v>
@@ -20298,7 +20324,7 @@
         <v>216</v>
       </c>
       <c r="AK68" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL68" t="s">
         <v>17</v>
@@ -20319,7 +20345,7 @@
         <v>220</v>
       </c>
       <c r="AR68" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AS68" t="s">
         <v>17</v>
@@ -20340,7 +20366,7 @@
         <v>220</v>
       </c>
       <c r="AY68" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AZ68" t="s">
         <v>17</v>
@@ -20433,27 +20459,27 @@
         <v>17</v>
       </c>
       <c r="CD68" s="54" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="69" spans="1:82">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D69" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G69" t="s">
         <v>140</v>
@@ -20681,27 +20707,27 @@
         <v>17</v>
       </c>
       <c r="CD69" s="54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="70" spans="1:82">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
       <c r="B70" t="s">
+        <v>336</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" t="s">
+        <v>333</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s">
         <v>334</v>
-      </c>
-      <c r="C70" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" t="s">
-        <v>331</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>332</v>
       </c>
       <c r="G70" t="s">
         <v>140</v>
@@ -20929,27 +20955,27 @@
         <v>17</v>
       </c>
       <c r="CD70" s="54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:82">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G71" t="s">
         <v>140</v>
@@ -21177,27 +21203,27 @@
         <v>17</v>
       </c>
       <c r="CD71" s="54" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:82">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G72" t="s">
         <v>206</v>
@@ -21425,27 +21451,27 @@
         <v>17</v>
       </c>
       <c r="CD72" s="54" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="73" spans="1:82">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="D73" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -21475,7 +21501,7 @@
         <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q73" t="s">
         <v>17</v>
@@ -21496,7 +21522,7 @@
         <v>255</v>
       </c>
       <c r="W73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="X73" t="s">
         <v>17</v>
@@ -21517,7 +21543,7 @@
         <v>256</v>
       </c>
       <c r="AD73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AE73" t="s">
         <v>17</v>
@@ -21538,7 +21564,7 @@
         <v>257</v>
       </c>
       <c r="AK73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL73" t="s">
         <v>17</v>
@@ -21559,7 +21585,7 @@
         <v>258</v>
       </c>
       <c r="AR73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AS73" t="s">
         <v>17</v>
@@ -21673,27 +21699,27 @@
         <v>17</v>
       </c>
       <c r="CD73" s="54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="74" spans="1:82">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
       <c r="B74" t="s">
+        <v>349</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D74" t="s">
+        <v>345</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" t="s">
         <v>346</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="D74" t="s">
-        <v>342</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F74" t="s">
-        <v>343</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
@@ -21921,27 +21947,27 @@
         <v>17</v>
       </c>
       <c r="CD74" s="54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:82">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="D75" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G75" t="s">
         <v>140</v>
@@ -22169,27 +22195,27 @@
         <v>17</v>
       </c>
       <c r="CD75" s="54" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="76" spans="1:82">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="D76" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G76" t="s">
         <v>206</v>
@@ -22405,10 +22431,10 @@
         <v>17</v>
       </c>
       <c r="BZ76" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="CA76" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="CB76" t="s">
         <v>17</v>
@@ -22417,27 +22443,27 @@
         <v>17</v>
       </c>
       <c r="CD76" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="77" spans="1:82">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>135</v>
       </c>
       <c r="B77" t="s">
+        <v>358</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="D77" t="s">
+        <v>353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>354</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" t="s">
-        <v>349</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>350</v>
       </c>
       <c r="G77" t="s">
         <v>206</v>
@@ -22464,10 +22490,10 @@
         <v>17</v>
       </c>
       <c r="O77" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P77" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q77" t="s">
         <v>17</v>
@@ -22665,27 +22691,27 @@
         <v>17</v>
       </c>
       <c r="CD77" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="78" spans="1:82">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="D78" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G78" t="s">
         <v>140</v>
@@ -22715,7 +22741,7 @@
         <v>252</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q78" t="s">
         <v>17</v>
@@ -22736,7 +22762,7 @@
         <v>255</v>
       </c>
       <c r="W78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X78" t="s">
         <v>17</v>
@@ -22757,7 +22783,7 @@
         <v>256</v>
       </c>
       <c r="AD78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE78" t="s">
         <v>17</v>
@@ -22778,7 +22804,7 @@
         <v>257</v>
       </c>
       <c r="AK78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL78" t="s">
         <v>17</v>
@@ -22799,7 +22825,7 @@
         <v>258</v>
       </c>
       <c r="AR78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AS78" t="s">
         <v>17</v>
@@ -22820,29 +22846,29 @@
         <v>258</v>
       </c>
       <c r="AY78" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ78" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA78" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB78" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC78" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE78" t="s">
+        <v>355</v>
+      </c>
+      <c r="BF78" t="s">
         <v>268</v>
       </c>
-      <c r="AZ78" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA78" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>351</v>
-      </c>
-      <c r="BF78" t="s">
-        <v>267</v>
-      </c>
       <c r="BG78" t="s">
         <v>17</v>
       </c>
@@ -22913,27 +22939,27 @@
         <v>17</v>
       </c>
       <c r="CD78" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="79" spans="1:82">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G79" t="s">
         <v>140</v>
@@ -22948,7 +22974,7 @@
         <v>143</v>
       </c>
       <c r="K79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -22963,7 +22989,7 @@
         <v>252</v>
       </c>
       <c r="P79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q79" t="s">
         <v>17</v>
@@ -22984,7 +23010,7 @@
         <v>252</v>
       </c>
       <c r="W79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X79" t="s">
         <v>17</v>
@@ -23005,7 +23031,7 @@
         <v>255</v>
       </c>
       <c r="AD79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE79" t="s">
         <v>17</v>
@@ -23026,7 +23052,7 @@
         <v>255</v>
       </c>
       <c r="AK79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL79" t="s">
         <v>17</v>
@@ -23047,7 +23073,7 @@
         <v>256</v>
       </c>
       <c r="AR79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AS79" t="s">
         <v>17</v>
@@ -23068,7 +23094,7 @@
         <v>256</v>
       </c>
       <c r="AY79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AZ79" t="s">
         <v>17</v>
@@ -23089,7 +23115,7 @@
         <v>257</v>
       </c>
       <c r="BF79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG79" t="s">
         <v>17</v>
@@ -23110,7 +23136,7 @@
         <v>257</v>
       </c>
       <c r="BM79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BN79" t="s">
         <v>17</v>
@@ -23131,7 +23157,7 @@
         <v>258</v>
       </c>
       <c r="BT79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BU79" t="s">
         <v>17</v>
@@ -23152,7 +23178,7 @@
         <v>258</v>
       </c>
       <c r="CA79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CB79" t="s">
         <v>17</v>
@@ -23161,27 +23187,27 @@
         <v>17</v>
       </c>
       <c r="CD79" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:82">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="D80" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E80" t="s">
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G80" t="s">
         <v>140</v>
@@ -23196,7 +23222,7 @@
         <v>143</v>
       </c>
       <c r="K80" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -23211,29 +23237,29 @@
         <v>258</v>
       </c>
       <c r="P80" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>17</v>
+      </c>
+      <c r="R80" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" t="s">
+        <v>17</v>
+      </c>
+      <c r="T80" t="s">
+        <v>145</v>
+      </c>
+      <c r="U80" t="s">
+        <v>17</v>
+      </c>
+      <c r="V80" t="s">
+        <v>355</v>
+      </c>
+      <c r="W80" t="s">
         <v>278</v>
       </c>
-      <c r="Q80" t="s">
-        <v>17</v>
-      </c>
-      <c r="R80" t="s">
-        <v>17</v>
-      </c>
-      <c r="S80" t="s">
-        <v>17</v>
-      </c>
-      <c r="T80" t="s">
-        <v>145</v>
-      </c>
-      <c r="U80" t="s">
-        <v>17</v>
-      </c>
-      <c r="V80" t="s">
-        <v>351</v>
-      </c>
-      <c r="W80" t="s">
-        <v>277</v>
-      </c>
       <c r="X80" t="s">
         <v>17</v>
       </c>
@@ -23409,27 +23435,27 @@
         <v>17</v>
       </c>
       <c r="CD80" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:82">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="D81" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G81" t="s">
         <v>140</v>
@@ -23561,7 +23587,7 @@
         <v>17</v>
       </c>
       <c r="AX81" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AY81" t="s">
         <v>230</v>
@@ -23657,27 +23683,27 @@
         <v>17</v>
       </c>
       <c r="CD81" s="54" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="82" spans="1:82">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D82" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G82" t="s">
         <v>206</v>
@@ -23707,7 +23733,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q82" t="s">
         <v>17</v>
@@ -23905,27 +23931,27 @@
         <v>17</v>
       </c>
       <c r="CD82" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:82">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>135</v>
       </c>
       <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>365</v>
+      </c>
+      <c r="D83" t="s">
         <v>366</v>
       </c>
-      <c r="C83" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="D83" t="s">
-        <v>362</v>
-      </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G83" t="s">
         <v>206</v>
@@ -23955,7 +23981,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q83" t="s">
         <v>17</v>
@@ -24153,27 +24179,27 @@
         <v>17</v>
       </c>
       <c r="CD83" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="84" spans="1:82">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G84" t="s">
         <v>206</v>
@@ -24203,7 +24229,7 @@
         <v>156</v>
       </c>
       <c r="P84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q84" t="s">
         <v>17</v>
@@ -24224,7 +24250,7 @@
         <v>157</v>
       </c>
       <c r="W84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="X84" t="s">
         <v>17</v>
@@ -24245,7 +24271,7 @@
         <v>158</v>
       </c>
       <c r="AD84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AE84" t="s">
         <v>17</v>
@@ -24266,7 +24292,7 @@
         <v>159</v>
       </c>
       <c r="AK84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AL84" t="s">
         <v>17</v>
@@ -24287,7 +24313,7 @@
         <v>160</v>
       </c>
       <c r="AR84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AS84" t="s">
         <v>17</v>
@@ -24308,7 +24334,7 @@
         <v>161</v>
       </c>
       <c r="AY84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AZ84" t="s">
         <v>17</v>
@@ -24329,7 +24355,7 @@
         <v>162</v>
       </c>
       <c r="BF84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BG84" t="s">
         <v>17</v>
@@ -24350,7 +24376,7 @@
         <v>163</v>
       </c>
       <c r="BM84" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BN84" t="s">
         <v>17</v>
@@ -24401,27 +24427,27 @@
         <v>17</v>
       </c>
       <c r="CD84" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="85" spans="1:82">
+    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D85" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -24451,7 +24477,7 @@
         <v>166</v>
       </c>
       <c r="P85" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q85" t="s">
         <v>17</v>
@@ -24472,7 +24498,7 @@
         <v>167</v>
       </c>
       <c r="W85" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="X85" t="s">
         <v>17</v>
@@ -24493,7 +24519,7 @@
         <v>168</v>
       </c>
       <c r="AD85" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AE85" t="s">
         <v>17</v>
@@ -24649,27 +24675,27 @@
         <v>17</v>
       </c>
       <c r="CD85" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:82">
+    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -24699,7 +24725,7 @@
         <v>171</v>
       </c>
       <c r="P86" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q86" t="s">
         <v>17</v>
@@ -24720,7 +24746,7 @@
         <v>172</v>
       </c>
       <c r="W86" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="X86" t="s">
         <v>17</v>
@@ -24741,7 +24767,7 @@
         <v>173</v>
       </c>
       <c r="AD86" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AE86" t="s">
         <v>17</v>
@@ -24897,27 +24923,27 @@
         <v>17</v>
       </c>
       <c r="CD86" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:82">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D87" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -25052,7 +25078,7 @@
         <v>258</v>
       </c>
       <c r="AY87" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AZ87" t="s">
         <v>17</v>
@@ -25070,10 +25096,10 @@
         <v>17</v>
       </c>
       <c r="BE87" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="BF87" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BG87" t="s">
         <v>17</v>
@@ -25091,10 +25117,10 @@
         <v>17</v>
       </c>
       <c r="BL87" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BM87" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="BN87" t="s">
         <v>17</v>
@@ -25115,7 +25141,7 @@
         <v>179</v>
       </c>
       <c r="BT87" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BU87" t="s">
         <v>17</v>
@@ -25145,27 +25171,27 @@
         <v>17</v>
       </c>
       <c r="CD87" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:82">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D88" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -25195,7 +25221,7 @@
         <v>220</v>
       </c>
       <c r="P88" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q88" t="s">
         <v>17</v>
@@ -25393,27 +25419,27 @@
         <v>17</v>
       </c>
       <c r="CD88" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:82">
+    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D89" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G89" t="s">
         <v>140</v>
@@ -25641,27 +25667,27 @@
         <v>17</v>
       </c>
       <c r="CD89" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:82">
+    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D90" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G90" t="s">
         <v>140</v>
@@ -25889,27 +25915,27 @@
         <v>17</v>
       </c>
       <c r="CD90" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="91" spans="1:82">
+    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D91" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G91" t="s">
         <v>140</v>
@@ -26137,27 +26163,27 @@
         <v>17</v>
       </c>
       <c r="CD91" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:82">
+    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D92" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G92" t="s">
         <v>140</v>
@@ -26385,27 +26411,27 @@
         <v>17</v>
       </c>
       <c r="CD92" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:82">
+    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D93" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G93" t="s">
         <v>140</v>
@@ -26633,27 +26659,27 @@
         <v>17</v>
       </c>
       <c r="CD93" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:82">
+    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G94" t="s">
         <v>140</v>
@@ -26881,27 +26907,27 @@
         <v>17</v>
       </c>
       <c r="CD94" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="95" spans="1:82">
+    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D95" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G95" t="s">
         <v>140</v>
@@ -27129,27 +27155,27 @@
         <v>17</v>
       </c>
       <c r="CD95" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="96" spans="1:82">
+    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E96" t="s">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G96" t="s">
         <v>140</v>
@@ -27377,27 +27403,27 @@
         <v>17</v>
       </c>
       <c r="CD96" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:82">
+    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D97" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G97" t="s">
         <v>140</v>
@@ -27625,27 +27651,27 @@
         <v>17</v>
       </c>
       <c r="CD97" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="98" spans="1:82">
+    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D98" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G98" t="s">
         <v>140</v>
@@ -27675,7 +27701,7 @@
         <v>252</v>
       </c>
       <c r="P98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q98" t="s">
         <v>17</v>
@@ -27696,7 +27722,7 @@
         <v>255</v>
       </c>
       <c r="W98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X98" t="s">
         <v>17</v>
@@ -27717,7 +27743,7 @@
         <v>256</v>
       </c>
       <c r="AD98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE98" t="s">
         <v>17</v>
@@ -27738,7 +27764,7 @@
         <v>257</v>
       </c>
       <c r="AK98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL98" t="s">
         <v>17</v>
@@ -27759,7 +27785,7 @@
         <v>258</v>
       </c>
       <c r="AR98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AS98" t="s">
         <v>17</v>
@@ -27780,71 +27806,71 @@
         <v>258</v>
       </c>
       <c r="AY98" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC98" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE98" t="s">
+        <v>389</v>
+      </c>
+      <c r="BF98" t="s">
+        <v>269</v>
+      </c>
+      <c r="BG98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ98" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL98" t="s">
+        <v>355</v>
+      </c>
+      <c r="BM98" t="s">
         <v>268</v>
       </c>
-      <c r="AZ98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC98" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE98" t="s">
-        <v>385</v>
-      </c>
-      <c r="BF98" t="s">
+      <c r="BN98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ98" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR98" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS98" t="s">
+        <v>359</v>
+      </c>
+      <c r="BT98" t="s">
         <v>268</v>
       </c>
-      <c r="BG98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BJ98" t="s">
-        <v>145</v>
-      </c>
-      <c r="BK98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL98" t="s">
-        <v>351</v>
-      </c>
-      <c r="BM98" t="s">
-        <v>267</v>
-      </c>
-      <c r="BN98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BQ98" t="s">
-        <v>145</v>
-      </c>
-      <c r="BR98" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS98" t="s">
-        <v>355</v>
-      </c>
-      <c r="BT98" t="s">
-        <v>267</v>
-      </c>
       <c r="BU98" t="s">
         <v>17</v>
       </c>
@@ -27861,10 +27887,10 @@
         <v>17</v>
       </c>
       <c r="BZ98" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="CA98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CB98" t="s">
         <v>17</v>
@@ -27873,27 +27899,27 @@
         <v>17</v>
       </c>
       <c r="CD98" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="99" spans="1:82">
+    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D99" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G99" t="s">
         <v>140</v>
@@ -28121,27 +28147,27 @@
         <v>17</v>
       </c>
       <c r="CD99" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="100" spans="1:82">
+    <row r="100" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G100" t="s">
         <v>140</v>
@@ -28369,27 +28395,27 @@
         <v>17</v>
       </c>
       <c r="CD100" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:82">
+    <row r="101" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D101" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G101" t="s">
         <v>140</v>
@@ -28617,27 +28643,27 @@
         <v>17</v>
       </c>
       <c r="CD101" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:82">
+    <row r="102" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D102" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G102" t="s">
         <v>140</v>
@@ -28865,27 +28891,27 @@
         <v>17</v>
       </c>
       <c r="CD102" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:82">
+    <row r="103" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D103" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G103" t="s">
         <v>140</v>
@@ -29113,27 +29139,27 @@
         <v>17</v>
       </c>
       <c r="CD103" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="104" spans="1:82">
+    <row r="104" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G104" t="s">
         <v>140</v>
@@ -29361,27 +29387,27 @@
         <v>17</v>
       </c>
       <c r="CD104" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="105" spans="1:82">
+    <row r="105" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G105" t="s">
         <v>140</v>
@@ -29396,7 +29422,7 @@
         <v>143</v>
       </c>
       <c r="K105" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -29411,7 +29437,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q105" t="s">
         <v>17</v>
@@ -29609,27 +29635,27 @@
         <v>17</v>
       </c>
       <c r="CD105" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="106" spans="1:82">
+    <row r="106" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G106" t="s">
         <v>140</v>
@@ -29644,7 +29670,7 @@
         <v>143</v>
       </c>
       <c r="K106" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -29857,27 +29883,27 @@
         <v>17</v>
       </c>
       <c r="CD106" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="107" spans="1:82">
+    <row r="107" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E107" t="s">
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G107" t="s">
         <v>140</v>
@@ -29892,7 +29918,7 @@
         <v>143</v>
       </c>
       <c r="K107" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -30105,27 +30131,27 @@
         <v>17</v>
       </c>
       <c r="CD107" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:82">
+    <row r="108" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G108" t="s">
         <v>140</v>
@@ -30140,7 +30166,7 @@
         <v>143</v>
       </c>
       <c r="K108" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -30353,27 +30379,27 @@
         <v>17</v>
       </c>
       <c r="CD108" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="109" spans="1:82">
+    <row r="109" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G109" t="s">
         <v>140</v>
@@ -30388,7 +30414,7 @@
         <v>143</v>
       </c>
       <c r="K109" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -30601,27 +30627,27 @@
         <v>17</v>
       </c>
       <c r="CD109" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:82">
+    <row r="110" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G110" t="s">
         <v>140</v>
@@ -30636,7 +30662,7 @@
         <v>143</v>
       </c>
       <c r="K110" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -30849,27 +30875,27 @@
         <v>17</v>
       </c>
       <c r="CD110" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="111" spans="1:82">
+    <row r="111" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E111" t="s">
         <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G111" t="s">
         <v>140</v>
@@ -30884,7 +30910,7 @@
         <v>143</v>
       </c>
       <c r="K111" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -31097,27 +31123,27 @@
         <v>17</v>
       </c>
       <c r="CD111" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="112" spans="1:82">
+    <row r="112" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G112" t="s">
         <v>140</v>
@@ -31132,7 +31158,7 @@
         <v>143</v>
       </c>
       <c r="K112" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -31345,27 +31371,27 @@
         <v>17</v>
       </c>
       <c r="CD112" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="113" spans="1:82">
+    <row r="113" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D113" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G113" t="s">
         <v>140</v>
@@ -31380,7 +31406,7 @@
         <v>143</v>
       </c>
       <c r="K113" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -31593,27 +31619,27 @@
         <v>17</v>
       </c>
       <c r="CD113" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="114" spans="1:82">
+    <row r="114" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D114" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G114" t="s">
         <v>140</v>
@@ -31841,27 +31867,27 @@
         <v>17</v>
       </c>
       <c r="CD114" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="115" spans="1:82">
+    <row r="115" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D115" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G115" t="s">
         <v>140</v>
@@ -31876,7 +31902,7 @@
         <v>143</v>
       </c>
       <c r="K115" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -32089,27 +32115,27 @@
         <v>17</v>
       </c>
       <c r="CD115" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:82">
+    <row r="116" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G116" t="s">
         <v>140</v>
@@ -32124,7 +32150,7 @@
         <v>143</v>
       </c>
       <c r="K116" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -32337,27 +32363,27 @@
         <v>17</v>
       </c>
       <c r="CD116" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:82">
+    <row r="117" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E117" t="s">
         <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G117" t="s">
         <v>140</v>
@@ -32585,27 +32611,27 @@
         <v>17</v>
       </c>
       <c r="CD117" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:82">
+    <row r="118" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D118" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G118" t="s">
         <v>140</v>
@@ -32620,7 +32646,7 @@
         <v>143</v>
       </c>
       <c r="K118" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -32833,27 +32859,27 @@
         <v>17</v>
       </c>
       <c r="CD118" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:82">
+    <row r="119" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G119" t="s">
         <v>140</v>
@@ -32868,7 +32894,7 @@
         <v>143</v>
       </c>
       <c r="K119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -32883,7 +32909,7 @@
         <v>252</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119" t="s">
         <v>17</v>
@@ -32904,7 +32930,7 @@
         <v>252</v>
       </c>
       <c r="W119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="X119" t="s">
         <v>17</v>
@@ -32925,7 +32951,7 @@
         <v>255</v>
       </c>
       <c r="AD119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AE119" t="s">
         <v>17</v>
@@ -32946,7 +32972,7 @@
         <v>255</v>
       </c>
       <c r="AK119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL119" t="s">
         <v>17</v>
@@ -32967,7 +32993,7 @@
         <v>256</v>
       </c>
       <c r="AR119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AS119" t="s">
         <v>17</v>
@@ -32988,7 +33014,7 @@
         <v>256</v>
       </c>
       <c r="AY119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AZ119" t="s">
         <v>17</v>
@@ -33009,7 +33035,7 @@
         <v>257</v>
       </c>
       <c r="BF119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BG119" t="s">
         <v>17</v>
@@ -33030,7 +33056,7 @@
         <v>257</v>
       </c>
       <c r="BM119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BN119" t="s">
         <v>17</v>
@@ -33051,7 +33077,7 @@
         <v>258</v>
       </c>
       <c r="BT119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BU119" t="s">
         <v>17</v>
@@ -33072,7 +33098,7 @@
         <v>258</v>
       </c>
       <c r="CA119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CB119" t="s">
         <v>17</v>
@@ -33081,27 +33107,27 @@
         <v>17</v>
       </c>
       <c r="CD119" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:82">
+    <row r="120" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G120" t="s">
         <v>140</v>
@@ -33116,7 +33142,7 @@
         <v>143</v>
       </c>
       <c r="K120" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -33131,50 +33157,50 @@
         <v>258</v>
       </c>
       <c r="P120" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>17</v>
+      </c>
+      <c r="R120" t="s">
+        <v>17</v>
+      </c>
+      <c r="S120" t="s">
+        <v>17</v>
+      </c>
+      <c r="T120" t="s">
+        <v>145</v>
+      </c>
+      <c r="U120" t="s">
+        <v>17</v>
+      </c>
+      <c r="V120" t="s">
+        <v>389</v>
+      </c>
+      <c r="W120" t="s">
+        <v>276</v>
+      </c>
+      <c r="X120" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD120" t="s">
         <v>278</v>
       </c>
-      <c r="Q120" t="s">
-        <v>17</v>
-      </c>
-      <c r="R120" t="s">
-        <v>17</v>
-      </c>
-      <c r="S120" t="s">
-        <v>17</v>
-      </c>
-      <c r="T120" t="s">
-        <v>145</v>
-      </c>
-      <c r="U120" t="s">
-        <v>17</v>
-      </c>
-      <c r="V120" t="s">
-        <v>385</v>
-      </c>
-      <c r="W120" t="s">
-        <v>275</v>
-      </c>
-      <c r="X120" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z120" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA120" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB120" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD120" t="s">
-        <v>277</v>
-      </c>
       <c r="AE120" t="s">
         <v>17</v>
       </c>
@@ -33191,10 +33217,10 @@
         <v>17</v>
       </c>
       <c r="AJ120" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AK120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL120" t="s">
         <v>17</v>
@@ -33212,10 +33238,10 @@
         <v>17</v>
       </c>
       <c r="AQ120" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AR120" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AS120" t="s">
         <v>17</v>
@@ -33329,27 +33355,27 @@
         <v>17</v>
       </c>
       <c r="CD120" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="121" spans="1:82">
+    <row r="121" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D121" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G121" t="s">
         <v>140</v>
@@ -33577,27 +33603,27 @@
         <v>17</v>
       </c>
       <c r="CD121" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:82">
+    <row r="122" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D122" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G122" t="s">
         <v>140</v>
@@ -33825,27 +33851,27 @@
         <v>17</v>
       </c>
       <c r="CD122" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="123" spans="1:82">
+    <row r="123" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D123" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G123" t="s">
         <v>140</v>
@@ -34073,27 +34099,27 @@
         <v>17</v>
       </c>
       <c r="CD123" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="124" spans="1:82">
+    <row r="124" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D124" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G124" t="s">
         <v>140</v>
@@ -34321,27 +34347,27 @@
         <v>17</v>
       </c>
       <c r="CD124" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="125" spans="1:82">
+    <row r="125" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D125" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G125" t="s">
         <v>140</v>
@@ -34569,27 +34595,27 @@
         <v>17</v>
       </c>
       <c r="CD125" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="126" spans="1:82">
+    <row r="126" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D126" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G126" t="s">
         <v>140</v>
@@ -34817,27 +34843,27 @@
         <v>17</v>
       </c>
       <c r="CD126" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:82">
+    <row r="127" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>203</v>
+        <v>432</v>
       </c>
       <c r="C127" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D127" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G127" t="s">
         <v>140</v>
@@ -35065,27 +35091,27 @@
         <v>17</v>
       </c>
       <c r="CD127" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="128" spans="1:82">
+    <row r="128" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>433</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G128" t="s">
         <v>140</v>
@@ -35217,10 +35243,10 @@
         <v>17</v>
       </c>
       <c r="AX128" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AY128" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AZ128" t="s">
         <v>17</v>
@@ -35238,7 +35264,7 @@
         <v>17</v>
       </c>
       <c r="BE128" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="BF128" t="s">
         <v>230</v>
@@ -35259,7 +35285,7 @@
         <v>17</v>
       </c>
       <c r="BL128" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BM128" t="s">
         <v>230</v>
@@ -35280,10 +35306,10 @@
         <v>17</v>
       </c>
       <c r="BS128" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="BT128" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="BU128" t="s">
         <v>17</v>
@@ -35313,27 +35339,27 @@
         <v>17</v>
       </c>
       <c r="CD128" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:82">
+    <row r="129" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G129" t="s">
         <v>140</v>
@@ -35561,7 +35587,7 @@
         <v>17</v>
       </c>
       <c r="CD129" s="54" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -35577,7 +35603,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
@@ -35681,7 +35707,7 @@
     <col min="102" max="102" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="29.25">
+    <row r="1" spans="1:102" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
@@ -35695,7 +35721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -35709,13 +35735,13 @@
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>27</v>
       </c>
@@ -35723,13 +35749,13 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="29.25">
+    <row r="4" spans="1:102" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -35737,324 +35763,324 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="15.75">
+    <row r="5" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="R5" s="47" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="X5" s="45" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="Y5" s="45" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AB5" s="45" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AC5" s="45" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AD5" s="45" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AE5" s="45" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AF5" s="45" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AG5" s="45" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AH5" s="45" t="s">
         <v>138</v>
       </c>
       <c r="AI5" s="45" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AJ5" s="45" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AK5" s="45" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="AM5" s="45" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="AN5" s="45" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="AO5" s="45" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AP5" s="45" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="AQ5" s="45" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="AR5" s="45" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AS5" s="45" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AT5" s="45" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="AU5" s="45" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AV5" s="45" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="AW5" s="45" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="AX5" s="45" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AY5" s="45" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="AZ5" s="45" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="BA5" s="45" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="BB5" s="45" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="BC5" s="45" t="s">
         <v>248</v>
       </c>
       <c r="BD5" s="45" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="BE5" s="45" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="BF5" s="45" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="BG5" s="45" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="BH5" s="45" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="BI5" s="45" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="BJ5" s="48" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="BK5" s="48" t="s">
         <v>204</v>
       </c>
       <c r="BL5" s="48" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="BM5" s="48" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="BN5" s="48" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="BO5" s="48" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="BP5" s="48" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="BQ5" s="48" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="BR5" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="BS5" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="BT5" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="BU5" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="BV5" s="48" t="s">
+        <v>500</v>
+      </c>
+      <c r="BW5" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="BX5" s="48" t="s">
+        <v>502</v>
+      </c>
+      <c r="BY5" s="48" t="s">
+        <v>503</v>
+      </c>
+      <c r="BZ5" s="48" t="s">
+        <v>504</v>
+      </c>
+      <c r="CA5" s="48" t="s">
+        <v>505</v>
+      </c>
+      <c r="CB5" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="CC5" s="45" t="s">
+        <v>457</v>
+      </c>
+      <c r="CD5" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="CE5" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="CF5" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="CG5" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="CH5" s="45" t="s">
+        <v>461</v>
+      </c>
+      <c r="CI5" s="45" t="s">
         <v>490</v>
-      </c>
-      <c r="BS5" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="BT5" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="BU5" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="BV5" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="BW5" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="BX5" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="BY5" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="BZ5" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="CA5" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="CB5" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="CC5" s="45" t="s">
-        <v>450</v>
-      </c>
-      <c r="CD5" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="CE5" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="CF5" s="45" t="s">
-        <v>501</v>
-      </c>
-      <c r="CG5" s="45" t="s">
-        <v>455</v>
-      </c>
-      <c r="CH5" s="45" t="s">
-        <v>454</v>
-      </c>
-      <c r="CI5" s="45" t="s">
-        <v>483</v>
       </c>
       <c r="CJ5" s="45" t="s">
         <v>248</v>
       </c>
       <c r="CK5" s="45" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="CL5" s="45" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="CM5" s="49" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="CN5" s="49" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="CO5" s="49" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="CP5" s="49" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="CQ5" s="49" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="CR5" s="49" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="CS5" s="49" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="CT5" s="49" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="CU5" s="49" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="CV5" s="50" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="CW5" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="CX5" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
@@ -36062,7 +36088,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>145</v>

--- a/P0004/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0004/09_FICHAS/VARDATOS_v0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0004/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD8194C3-CD9C-4FBE-8AE1-995A344DAC68}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6F5AFC-7E52-4567-A031-8BF237FB7A6C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -2178,29 +2178,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2210,10 +2187,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2710,109 +2710,109 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="58" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="55" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="65"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="56"/>
     </row>
     <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="57"/>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="58" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2820,37 +2820,37 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="38"/>
-      <c r="C26" s="68"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="42"/>
     </row>
     <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="63"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="55" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2858,21 +2858,21 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="66"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="67" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2880,21 +2880,21 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2902,9 +2902,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
@@ -3555,6 +3555,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -3566,12 +3572,6 @@
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3582,8 +3582,8 @@
   <dimension ref="A1:CD129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/P0004/09_FICHAS/VARDATOS_v0.xlsx
+++ b/P0004/09_FICHAS/VARDATOS_v0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0004/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6F5AFC-7E52-4567-A031-8BF237FB7A6C}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="11_3C1572A9D3005320E7593311595ED87656C5D6CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E42FD4D-0D07-437E-81EA-DDE54D4E13D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20250" windowHeight="8280" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Vardatos" sheetId="1" r:id="rId2"/>
     <sheet name="Otros" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Vardatos!$A$1:$CD$129</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1057,6 +1060,9 @@
     <t>VR0060</t>
   </si>
   <si>
+    <t>Localización</t>
+  </si>
+  <si>
     <t>Esta variable hace referencia a la ubicación geográfica o espacial de un objeto, persona, o entidad dentro de un determinado contexto. Dependiendo del ámbito de aplicación, esta variable puede incluir coordenadas específicas como latitud y longitud, una dirección física, un nombre o incluso una región más amplia, como una ciudad, departamento o país.</t>
   </si>
   <si>
@@ -1741,9 +1747,6 @@
     <t>Otra</t>
   </si>
   <si>
-    <t>Localización</t>
-  </si>
-  <si>
     <t>Delimitación</t>
   </si>
   <si>
@@ -1754,7 +1757,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2178,6 +2181,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2187,33 +2211,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2523,7 +2526,7 @@
       <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" customWidth="1"/>
@@ -2531,7 +2534,7 @@
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2572,7 @@
       <c r="C3" s="27"/>
       <c r="D3" s="23"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="29" t="s">
         <v>15</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="34" t="s">
         <v>22</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="34" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="34" t="s">
         <v>27</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="165">
       <c r="A12" s="34" t="s">
         <v>30</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
         <v>32</v>
       </c>
@@ -2709,207 +2712,207 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="62" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="65"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="63"/>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+    <row r="16" spans="1:4" ht="75">
+      <c r="A16" s="65"/>
       <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="63"/>
     </row>
-    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="62"/>
+    <row r="17" spans="1:4" ht="120">
+      <c r="A17" s="65"/>
       <c r="B17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="63"/>
     </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+    <row r="18" spans="1:4" ht="75">
+      <c r="A18" s="56"/>
       <c r="B18" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="64"/>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" s="55" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="65"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="65"/>
       <c r="B21" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+    <row r="22" spans="1:4" ht="45">
+      <c r="A22" s="65"/>
       <c r="B22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+    <row r="23" spans="1:4" ht="45">
+      <c r="A23" s="65"/>
       <c r="B23" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
     </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
+    <row r="24" spans="1:4" ht="135">
+      <c r="A24" s="56"/>
       <c r="B24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="65"/>
       <c r="B26" s="38"/>
-      <c r="C26" s="65"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="65"/>
       <c r="B27" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
+    <row r="28" spans="1:4" ht="60">
+      <c r="A28" s="56"/>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="62" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="57"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="68"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="66" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="66"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="56"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
@@ -2919,7 +2922,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -2929,7 +2932,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
         <v>65</v>
       </c>
@@ -2939,7 +2942,7 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -2949,7 +2952,7 @@
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -2959,7 +2962,7 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -2969,7 +2972,7 @@
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
@@ -2979,7 +2982,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
         <v>75</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
         <v>76</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="13" t="s">
         <v>77</v>
       </c>
@@ -3009,7 +3012,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="13" t="s">
         <v>78</v>
       </c>
@@ -3019,7 +3022,7 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="13" t="s">
         <v>79</v>
       </c>
@@ -3029,7 +3032,7 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="13" t="s">
         <v>80</v>
       </c>
@@ -3039,7 +3042,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="13" t="s">
         <v>81</v>
       </c>
@@ -3049,7 +3052,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="14" t="s">
         <v>82</v>
       </c>
@@ -3059,7 +3062,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="15" t="s">
         <v>83</v>
       </c>
@@ -3069,7 +3072,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="15" t="s">
         <v>84</v>
       </c>
@@ -3079,7 +3082,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="15" t="s">
         <v>85</v>
       </c>
@@ -3089,7 +3092,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="15" t="s">
         <v>86</v>
       </c>
@@ -3099,7 +3102,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="15" t="s">
         <v>87</v>
       </c>
@@ -3109,7 +3112,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="15" t="s">
         <v>88</v>
       </c>
@@ -3119,7 +3122,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="16" t="s">
         <v>89</v>
       </c>
@@ -3129,7 +3132,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="17" t="s">
         <v>90</v>
       </c>
@@ -3139,7 +3142,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
@@ -3149,7 +3152,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="17" t="s">
         <v>92</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="17" t="s">
         <v>93</v>
       </c>
@@ -3169,7 +3172,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="17" t="s">
         <v>94</v>
       </c>
@@ -3179,7 +3182,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="17" t="s">
         <v>95</v>
       </c>
@@ -3189,7 +3192,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="18" t="s">
         <v>96</v>
       </c>
@@ -3199,7 +3202,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="19" t="s">
         <v>97</v>
       </c>
@@ -3209,7 +3212,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="19" t="s">
         <v>98</v>
       </c>
@@ -3219,7 +3222,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="19" t="s">
         <v>99</v>
       </c>
@@ -3229,7 +3232,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="19" t="s">
         <v>100</v>
       </c>
@@ -3239,7 +3242,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="19" t="s">
         <v>101</v>
       </c>
@@ -3249,7 +3252,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="19" t="s">
         <v>102</v>
       </c>
@@ -3259,7 +3262,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="7" t="s">
         <v>103</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="10" t="s">
         <v>104</v>
       </c>
@@ -3279,7 +3282,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="10" t="s">
         <v>105</v>
       </c>
@@ -3289,7 +3292,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="10" t="s">
         <v>106</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="10" t="s">
         <v>107</v>
       </c>
@@ -3309,7 +3312,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="10" t="s">
         <v>108</v>
       </c>
@@ -3319,7 +3322,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="10" t="s">
         <v>109</v>
       </c>
@@ -3329,7 +3332,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
         <v>110</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="13" t="s">
         <v>111</v>
       </c>
@@ -3349,7 +3352,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="13" t="s">
         <v>112</v>
       </c>
@@ -3359,7 +3362,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="13" t="s">
         <v>113</v>
       </c>
@@ -3369,7 +3372,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="13" t="s">
         <v>114</v>
       </c>
@@ -3379,7 +3382,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="13" t="s">
         <v>115</v>
       </c>
@@ -3389,7 +3392,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="13" t="s">
         <v>116</v>
       </c>
@@ -3399,7 +3402,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="14" t="s">
         <v>117</v>
       </c>
@@ -3409,7 +3412,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="15" t="s">
         <v>118</v>
       </c>
@@ -3419,7 +3422,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="15" t="s">
         <v>119</v>
       </c>
@@ -3429,7 +3432,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="15" t="s">
         <v>120</v>
       </c>
@@ -3439,7 +3442,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="15" t="s">
         <v>121</v>
       </c>
@@ -3449,7 +3452,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="15" t="s">
         <v>122</v>
       </c>
@@ -3459,7 +3462,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="15" t="s">
         <v>123</v>
       </c>
@@ -3469,7 +3472,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="16" t="s">
         <v>124</v>
       </c>
@@ -3479,7 +3482,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="17" t="s">
         <v>125</v>
       </c>
@@ -3489,7 +3492,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="17" t="s">
         <v>126</v>
       </c>
@@ -3499,7 +3502,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="17" t="s">
         <v>127</v>
       </c>
@@ -3509,7 +3512,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="17" t="s">
         <v>128</v>
       </c>
@@ -3519,7 +3522,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="17" t="s">
         <v>129</v>
       </c>
@@ -3529,7 +3532,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="17" t="s">
         <v>130</v>
       </c>
@@ -3539,7 +3542,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="20" t="s">
         <v>131</v>
       </c>
@@ -3555,12 +3558,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
     <mergeCell ref="D14:D18"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -3572,6 +3569,12 @@
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3582,11 +3585,11 @@
   <dimension ref="A1:CD129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CD129" sqref="A1:CD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -3598,7 +3601,7 @@
     <col min="11" max="11" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -5582,7 +5585,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -6574,7 +6577,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -7070,7 +7073,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -7318,7 +7321,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -8806,7 +8809,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -9054,7 +9057,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -9302,7 +9305,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -9550,7 +9553,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -9798,7 +9801,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -10294,7 +10297,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -10542,7 +10545,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -10790,7 +10793,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="30" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:82">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -11038,7 +11041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:82">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -11286,7 +11289,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:82">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:82">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:82">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:82">
       <c r="A36" t="s">
         <v>135</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:82">
       <c r="A37" t="s">
         <v>135</v>
       </c>
@@ -12774,7 +12777,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:82">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -13022,7 +13025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:82">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:82">
       <c r="A40" t="s">
         <v>135</v>
       </c>
@@ -13518,7 +13521,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:82">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:82">
       <c r="A42" t="s">
         <v>135</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:82">
       <c r="A43" t="s">
         <v>135</v>
       </c>
@@ -14262,7 +14265,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:82">
       <c r="A44" t="s">
         <v>135</v>
       </c>
@@ -14510,7 +14513,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:82">
       <c r="A45" t="s">
         <v>135</v>
       </c>
@@ -14758,7 +14761,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:82">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -15006,7 +15009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:82">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -15254,7 +15257,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:82">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:82">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:82">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -15998,7 +16001,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:82">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -16246,7 +16249,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:82">
       <c r="A52" t="s">
         <v>135</v>
       </c>
@@ -16494,7 +16497,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:82">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -16742,7 +16745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:82">
       <c r="A54" t="s">
         <v>135</v>
       </c>
@@ -16990,7 +16993,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:82">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -17238,7 +17241,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:82">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -17486,7 +17489,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:82">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -17734,7 +17737,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:82">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -17982,7 +17985,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:82">
       <c r="A59" t="s">
         <v>135</v>
       </c>
@@ -18230,7 +18233,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:82">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -18478,7 +18481,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:82">
       <c r="A61" t="s">
         <v>135</v>
       </c>
@@ -18489,13 +18492,13 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E61" t="s">
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G61" t="s">
         <v>206</v>
@@ -18504,7 +18507,7 @@
         <v>178</v>
       </c>
       <c r="I61" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J61" t="s">
         <v>143</v>
@@ -18525,7 +18528,7 @@
         <v>216</v>
       </c>
       <c r="P61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q61" t="s">
         <v>17</v>
@@ -18723,27 +18726,27 @@
         <v>17</v>
       </c>
       <c r="CD61" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:82">
       <c r="A62" t="s">
         <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E62" t="s">
         <v>17</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
         <v>206</v>
@@ -18773,7 +18776,7 @@
         <v>208</v>
       </c>
       <c r="P62" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q62" t="s">
         <v>17</v>
@@ -18794,7 +18797,7 @@
         <v>208</v>
       </c>
       <c r="W62" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="X62" t="s">
         <v>17</v>
@@ -18971,27 +18974,27 @@
         <v>17</v>
       </c>
       <c r="CD62" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:82">
       <c r="A63" t="s">
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G63" t="s">
         <v>206</v>
@@ -19021,7 +19024,7 @@
         <v>252</v>
       </c>
       <c r="P63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q63" t="s">
         <v>17</v>
@@ -19042,7 +19045,7 @@
         <v>255</v>
       </c>
       <c r="W63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X63" t="s">
         <v>17</v>
@@ -19063,7 +19066,7 @@
         <v>256</v>
       </c>
       <c r="AD63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AE63" t="s">
         <v>17</v>
@@ -19084,7 +19087,7 @@
         <v>257</v>
       </c>
       <c r="AK63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL63" t="s">
         <v>17</v>
@@ -19105,7 +19108,7 @@
         <v>258</v>
       </c>
       <c r="AR63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AS63" t="s">
         <v>17</v>
@@ -19126,7 +19129,7 @@
         <v>176</v>
       </c>
       <c r="AY63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ63" t="s">
         <v>17</v>
@@ -19147,7 +19150,7 @@
         <v>176</v>
       </c>
       <c r="BF63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BG63" t="s">
         <v>17</v>
@@ -19168,7 +19171,7 @@
         <v>156</v>
       </c>
       <c r="BM63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BN63" t="s">
         <v>17</v>
@@ -19189,7 +19192,7 @@
         <v>156</v>
       </c>
       <c r="BT63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BU63" t="s">
         <v>17</v>
@@ -19210,7 +19213,7 @@
         <v>179</v>
       </c>
       <c r="CA63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CB63" t="s">
         <v>17</v>
@@ -19219,27 +19222,27 @@
         <v>17</v>
       </c>
       <c r="CD63" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:82">
       <c r="A64" t="s">
         <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E64" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G64" t="s">
         <v>206</v>
@@ -19269,7 +19272,7 @@
         <v>179</v>
       </c>
       <c r="P64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q64" t="s">
         <v>17</v>
@@ -19290,7 +19293,7 @@
         <v>166</v>
       </c>
       <c r="W64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X64" t="s">
         <v>17</v>
@@ -19311,7 +19314,7 @@
         <v>166</v>
       </c>
       <c r="AD64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AE64" t="s">
         <v>17</v>
@@ -19332,7 +19335,7 @@
         <v>157</v>
       </c>
       <c r="AK64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL64" t="s">
         <v>17</v>
@@ -19353,7 +19356,7 @@
         <v>157</v>
       </c>
       <c r="AR64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AS64" t="s">
         <v>17</v>
@@ -19374,7 +19377,7 @@
         <v>158</v>
       </c>
       <c r="AY64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ64" t="s">
         <v>17</v>
@@ -19395,7 +19398,7 @@
         <v>158</v>
       </c>
       <c r="BF64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BG64" t="s">
         <v>17</v>
@@ -19416,7 +19419,7 @@
         <v>167</v>
       </c>
       <c r="BM64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BN64" t="s">
         <v>17</v>
@@ -19437,7 +19440,7 @@
         <v>167</v>
       </c>
       <c r="BT64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BU64" t="s">
         <v>17</v>
@@ -19458,7 +19461,7 @@
         <v>171</v>
       </c>
       <c r="CA64" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CB64" t="s">
         <v>17</v>
@@ -19467,27 +19470,27 @@
         <v>17</v>
       </c>
       <c r="CD64" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="65" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:82">
       <c r="A65" t="s">
         <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
       </c>
       <c r="D65" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E65" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G65" t="s">
         <v>206</v>
@@ -19517,7 +19520,7 @@
         <v>171</v>
       </c>
       <c r="P65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q65" t="s">
         <v>17</v>
@@ -19538,7 +19541,7 @@
         <v>159</v>
       </c>
       <c r="W65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="X65" t="s">
         <v>17</v>
@@ -19559,7 +19562,7 @@
         <v>159</v>
       </c>
       <c r="AD65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE65" t="s">
         <v>17</v>
@@ -19580,7 +19583,7 @@
         <v>168</v>
       </c>
       <c r="AK65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL65" t="s">
         <v>17</v>
@@ -19601,7 +19604,7 @@
         <v>168</v>
       </c>
       <c r="AR65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AS65" t="s">
         <v>17</v>
@@ -19622,7 +19625,7 @@
         <v>172</v>
       </c>
       <c r="AY65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AZ65" t="s">
         <v>17</v>
@@ -19643,7 +19646,7 @@
         <v>172</v>
       </c>
       <c r="BF65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BG65" t="s">
         <v>17</v>
@@ -19664,7 +19667,7 @@
         <v>173</v>
       </c>
       <c r="BM65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BN65" t="s">
         <v>17</v>
@@ -19685,7 +19688,7 @@
         <v>173</v>
       </c>
       <c r="BT65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BU65" t="s">
         <v>17</v>
@@ -19706,7 +19709,7 @@
         <v>152</v>
       </c>
       <c r="CA65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CB65" t="s">
         <v>17</v>
@@ -19715,27 +19718,27 @@
         <v>17</v>
       </c>
       <c r="CD65" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="66" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:82">
       <c r="A66" t="s">
         <v>135</v>
       </c>
       <c r="B66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E66" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G66" t="s">
         <v>206</v>
@@ -19765,7 +19768,7 @@
         <v>160</v>
       </c>
       <c r="P66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q66" t="s">
         <v>17</v>
@@ -19786,7 +19789,7 @@
         <v>160</v>
       </c>
       <c r="W66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="X66" t="s">
         <v>17</v>
@@ -19807,7 +19810,7 @@
         <v>161</v>
       </c>
       <c r="AD66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AE66" t="s">
         <v>17</v>
@@ -19828,7 +19831,7 @@
         <v>161</v>
       </c>
       <c r="AK66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL66" t="s">
         <v>17</v>
@@ -19849,7 +19852,7 @@
         <v>162</v>
       </c>
       <c r="AR66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AS66" t="s">
         <v>17</v>
@@ -19870,7 +19873,7 @@
         <v>162</v>
       </c>
       <c r="AY66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AZ66" t="s">
         <v>17</v>
@@ -19891,7 +19894,7 @@
         <v>163</v>
       </c>
       <c r="BF66" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="BG66" t="s">
         <v>17</v>
@@ -19912,7 +19915,7 @@
         <v>163</v>
       </c>
       <c r="BM66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BN66" t="s">
         <v>17</v>
@@ -19963,27 +19966,27 @@
         <v>17</v>
       </c>
       <c r="CD66" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:82">
       <c r="A67" t="s">
         <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G67" t="s">
         <v>206</v>
@@ -19992,7 +19995,7 @@
         <v>178</v>
       </c>
       <c r="I67" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J67" t="s">
         <v>143</v>
@@ -20013,7 +20016,7 @@
         <v>216</v>
       </c>
       <c r="P67" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q67" t="s">
         <v>17</v>
@@ -20211,27 +20214,27 @@
         <v>17</v>
       </c>
       <c r="CD67" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:82">
       <c r="A68" t="s">
         <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="E68" t="s">
         <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G68" t="s">
         <v>206</v>
@@ -20261,7 +20264,7 @@
         <v>214</v>
       </c>
       <c r="P68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q68" t="s">
         <v>17</v>
@@ -20282,7 +20285,7 @@
         <v>216</v>
       </c>
       <c r="W68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X68" t="s">
         <v>17</v>
@@ -20303,7 +20306,7 @@
         <v>216</v>
       </c>
       <c r="AD68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AE68" t="s">
         <v>17</v>
@@ -20324,7 +20327,7 @@
         <v>216</v>
       </c>
       <c r="AK68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL68" t="s">
         <v>17</v>
@@ -20345,7 +20348,7 @@
         <v>220</v>
       </c>
       <c r="AR68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AS68" t="s">
         <v>17</v>
@@ -20366,7 +20369,7 @@
         <v>220</v>
       </c>
       <c r="AY68" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AZ68" t="s">
         <v>17</v>
@@ -20459,27 +20462,27 @@
         <v>17</v>
       </c>
       <c r="CD68" s="54" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:82">
       <c r="A69" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E69" t="s">
         <v>17</v>
       </c>
       <c r="F69" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G69" t="s">
         <v>140</v>
@@ -20707,27 +20710,27 @@
         <v>17</v>
       </c>
       <c r="CD69" s="54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:82">
       <c r="A70" t="s">
         <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E70" t="s">
         <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G70" t="s">
         <v>140</v>
@@ -20955,27 +20958,27 @@
         <v>17</v>
       </c>
       <c r="CD70" s="54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:82">
       <c r="A71" t="s">
         <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G71" t="s">
         <v>140</v>
@@ -21203,27 +21206,27 @@
         <v>17</v>
       </c>
       <c r="CD71" s="54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="72" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:82">
       <c r="A72" t="s">
         <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D72" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E72" t="s">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G72" t="s">
         <v>206</v>
@@ -21451,27 +21454,27 @@
         <v>17</v>
       </c>
       <c r="CD72" s="54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:82">
       <c r="A73" t="s">
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E73" t="s">
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -21501,7 +21504,7 @@
         <v>252</v>
       </c>
       <c r="P73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q73" t="s">
         <v>17</v>
@@ -21522,7 +21525,7 @@
         <v>255</v>
       </c>
       <c r="W73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X73" t="s">
         <v>17</v>
@@ -21543,7 +21546,7 @@
         <v>256</v>
       </c>
       <c r="AD73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AE73" t="s">
         <v>17</v>
@@ -21564,7 +21567,7 @@
         <v>257</v>
       </c>
       <c r="AK73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL73" t="s">
         <v>17</v>
@@ -21585,7 +21588,7 @@
         <v>258</v>
       </c>
       <c r="AR73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AS73" t="s">
         <v>17</v>
@@ -21699,27 +21702,27 @@
         <v>17</v>
       </c>
       <c r="CD73" s="54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:82">
       <c r="A74" t="s">
         <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D74" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E74" t="s">
         <v>17</v>
       </c>
       <c r="F74" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G74" t="s">
         <v>140</v>
@@ -21947,27 +21950,27 @@
         <v>17</v>
       </c>
       <c r="CD74" s="54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="75" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:82">
       <c r="A75" t="s">
         <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D75" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G75" t="s">
         <v>140</v>
@@ -22195,27 +22198,27 @@
         <v>17</v>
       </c>
       <c r="CD75" s="54" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:82">
       <c r="A76" t="s">
         <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E76" t="s">
         <v>17</v>
       </c>
       <c r="F76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G76" t="s">
         <v>206</v>
@@ -22431,10 +22434,10 @@
         <v>17</v>
       </c>
       <c r="BZ76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="CA76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB76" t="s">
         <v>17</v>
@@ -22443,27 +22446,27 @@
         <v>17</v>
       </c>
       <c r="CD76" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:82">
       <c r="A77" t="s">
         <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G77" t="s">
         <v>206</v>
@@ -22490,10 +22493,10 @@
         <v>17</v>
       </c>
       <c r="O77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q77" t="s">
         <v>17</v>
@@ -22691,27 +22694,27 @@
         <v>17</v>
       </c>
       <c r="CD77" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="78" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:82">
       <c r="A78" t="s">
         <v>135</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E78" t="s">
         <v>17</v>
       </c>
       <c r="F78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G78" t="s">
         <v>140</v>
@@ -22864,7 +22867,7 @@
         <v>17</v>
       </c>
       <c r="BE78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BF78" t="s">
         <v>268</v>
@@ -22939,27 +22942,27 @@
         <v>17</v>
       </c>
       <c r="CD78" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:82">
       <c r="A79" t="s">
         <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G79" t="s">
         <v>140</v>
@@ -23187,27 +23190,27 @@
         <v>17</v>
       </c>
       <c r="CD79" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:82">
       <c r="A80" t="s">
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D80" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E80" t="s">
         <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G80" t="s">
         <v>140</v>
@@ -23255,7 +23258,7 @@
         <v>17</v>
       </c>
       <c r="V80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W80" t="s">
         <v>278</v>
@@ -23435,27 +23438,27 @@
         <v>17</v>
       </c>
       <c r="CD80" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:82">
       <c r="A81" t="s">
         <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G81" t="s">
         <v>140</v>
@@ -23587,7 +23590,7 @@
         <v>17</v>
       </c>
       <c r="AX81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AY81" t="s">
         <v>230</v>
@@ -23683,27 +23686,27 @@
         <v>17</v>
       </c>
       <c r="CD81" s="54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="82" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:82">
       <c r="A82" t="s">
         <v>135</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E82" t="s">
         <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G82" t="s">
         <v>206</v>
@@ -23733,7 +23736,7 @@
         <v>146</v>
       </c>
       <c r="P82" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q82" t="s">
         <v>17</v>
@@ -23931,27 +23934,27 @@
         <v>17</v>
       </c>
       <c r="CD82" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:82">
       <c r="A83" t="s">
         <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G83" t="s">
         <v>206</v>
@@ -23981,7 +23984,7 @@
         <v>151</v>
       </c>
       <c r="P83" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q83" t="s">
         <v>17</v>
@@ -24179,27 +24182,27 @@
         <v>17</v>
       </c>
       <c r="CD83" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="84" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:82">
       <c r="A84" t="s">
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G84" t="s">
         <v>206</v>
@@ -24229,7 +24232,7 @@
         <v>156</v>
       </c>
       <c r="P84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q84" t="s">
         <v>17</v>
@@ -24250,7 +24253,7 @@
         <v>157</v>
       </c>
       <c r="W84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X84" t="s">
         <v>17</v>
@@ -24271,7 +24274,7 @@
         <v>158</v>
       </c>
       <c r="AD84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE84" t="s">
         <v>17</v>
@@ -24292,7 +24295,7 @@
         <v>159</v>
       </c>
       <c r="AK84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL84" t="s">
         <v>17</v>
@@ -24313,7 +24316,7 @@
         <v>160</v>
       </c>
       <c r="AR84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AS84" t="s">
         <v>17</v>
@@ -24334,7 +24337,7 @@
         <v>161</v>
       </c>
       <c r="AY84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AZ84" t="s">
         <v>17</v>
@@ -24355,7 +24358,7 @@
         <v>162</v>
       </c>
       <c r="BF84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BG84" t="s">
         <v>17</v>
@@ -24376,7 +24379,7 @@
         <v>163</v>
       </c>
       <c r="BM84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BN84" t="s">
         <v>17</v>
@@ -24427,27 +24430,27 @@
         <v>17</v>
       </c>
       <c r="CD84" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="85" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:82">
       <c r="A85" t="s">
         <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E85" t="s">
         <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G85" t="s">
         <v>206</v>
@@ -24477,7 +24480,7 @@
         <v>166</v>
       </c>
       <c r="P85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q85" t="s">
         <v>17</v>
@@ -24498,7 +24501,7 @@
         <v>167</v>
       </c>
       <c r="W85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X85" t="s">
         <v>17</v>
@@ -24519,7 +24522,7 @@
         <v>168</v>
       </c>
       <c r="AD85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE85" t="s">
         <v>17</v>
@@ -24675,27 +24678,27 @@
         <v>17</v>
       </c>
       <c r="CD85" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="86" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:82">
       <c r="A86" t="s">
         <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E86" t="s">
         <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G86" t="s">
         <v>206</v>
@@ -24725,7 +24728,7 @@
         <v>171</v>
       </c>
       <c r="P86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q86" t="s">
         <v>17</v>
@@ -24746,7 +24749,7 @@
         <v>172</v>
       </c>
       <c r="W86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="X86" t="s">
         <v>17</v>
@@ -24767,7 +24770,7 @@
         <v>173</v>
       </c>
       <c r="AD86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE86" t="s">
         <v>17</v>
@@ -24923,27 +24926,27 @@
         <v>17</v>
       </c>
       <c r="CD86" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:82">
       <c r="A87" t="s">
         <v>135</v>
       </c>
       <c r="B87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G87" t="s">
         <v>206</v>
@@ -25078,7 +25081,7 @@
         <v>258</v>
       </c>
       <c r="AY87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AZ87" t="s">
         <v>17</v>
@@ -25096,10 +25099,10 @@
         <v>17</v>
       </c>
       <c r="BE87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BF87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BG87" t="s">
         <v>17</v>
@@ -25117,10 +25120,10 @@
         <v>17</v>
       </c>
       <c r="BL87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BM87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BN87" t="s">
         <v>17</v>
@@ -25141,7 +25144,7 @@
         <v>179</v>
       </c>
       <c r="BT87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="BU87" t="s">
         <v>17</v>
@@ -25171,27 +25174,27 @@
         <v>17</v>
       </c>
       <c r="CD87" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="88" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:82">
       <c r="A88" t="s">
         <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G88" t="s">
         <v>206</v>
@@ -25419,27 +25422,27 @@
         <v>17</v>
       </c>
       <c r="CD88" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:82">
       <c r="A89" t="s">
         <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E89" t="s">
         <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G89" t="s">
         <v>140</v>
@@ -25667,27 +25670,27 @@
         <v>17</v>
       </c>
       <c r="CD89" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="90" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:82">
       <c r="A90" t="s">
         <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E90" t="s">
         <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G90" t="s">
         <v>140</v>
@@ -25915,27 +25918,27 @@
         <v>17</v>
       </c>
       <c r="CD90" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="91" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:82">
       <c r="A91" t="s">
         <v>135</v>
       </c>
       <c r="B91" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G91" t="s">
         <v>140</v>
@@ -26163,27 +26166,27 @@
         <v>17</v>
       </c>
       <c r="CD91" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:82">
       <c r="A92" t="s">
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G92" t="s">
         <v>140</v>
@@ -26411,27 +26414,27 @@
         <v>17</v>
       </c>
       <c r="CD92" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="93" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:82">
       <c r="A93" t="s">
         <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C93" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D93" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E93" t="s">
         <v>17</v>
       </c>
       <c r="F93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G93" t="s">
         <v>140</v>
@@ -26659,27 +26662,27 @@
         <v>17</v>
       </c>
       <c r="CD93" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:82">
       <c r="A94" t="s">
         <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G94" t="s">
         <v>140</v>
@@ -26907,27 +26910,27 @@
         <v>17</v>
       </c>
       <c r="CD94" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="95" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:82">
       <c r="A95" t="s">
         <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C95" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D95" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G95" t="s">
         <v>140</v>
@@ -27155,27 +27158,27 @@
         <v>17</v>
       </c>
       <c r="CD95" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="96" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:82">
       <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C96" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D96" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E96" t="s">
         <v>17</v>
       </c>
       <c r="F96" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G96" t="s">
         <v>140</v>
@@ -27403,27 +27406,27 @@
         <v>17</v>
       </c>
       <c r="CD96" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="97" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:82">
       <c r="A97" t="s">
         <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C97" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D97" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
       </c>
       <c r="F97" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G97" t="s">
         <v>140</v>
@@ -27651,27 +27654,27 @@
         <v>17</v>
       </c>
       <c r="CD97" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="98" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:82">
       <c r="A98" t="s">
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D98" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G98" t="s">
         <v>140</v>
@@ -27824,7 +27827,7 @@
         <v>17</v>
       </c>
       <c r="BE98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="BF98" t="s">
         <v>269</v>
@@ -27845,7 +27848,7 @@
         <v>17</v>
       </c>
       <c r="BL98" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BM98" t="s">
         <v>268</v>
@@ -27866,7 +27869,7 @@
         <v>17</v>
       </c>
       <c r="BS98" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BT98" t="s">
         <v>268</v>
@@ -27887,7 +27890,7 @@
         <v>17</v>
       </c>
       <c r="BZ98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="CA98" t="s">
         <v>269</v>
@@ -27899,27 +27902,27 @@
         <v>17</v>
       </c>
       <c r="CD98" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="99" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:82">
       <c r="A99" t="s">
         <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C99" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D99" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E99" t="s">
         <v>17</v>
       </c>
       <c r="F99" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G99" t="s">
         <v>140</v>
@@ -28147,27 +28150,27 @@
         <v>17</v>
       </c>
       <c r="CD99" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="100" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:82">
       <c r="A100" t="s">
         <v>135</v>
       </c>
       <c r="B100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D100" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E100" t="s">
         <v>17</v>
       </c>
       <c r="F100" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G100" t="s">
         <v>140</v>
@@ -28395,27 +28398,27 @@
         <v>17</v>
       </c>
       <c r="CD100" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:82">
       <c r="A101" t="s">
         <v>135</v>
       </c>
       <c r="B101" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G101" t="s">
         <v>140</v>
@@ -28643,27 +28646,27 @@
         <v>17</v>
       </c>
       <c r="CD101" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="102" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:82">
       <c r="A102" t="s">
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G102" t="s">
         <v>140</v>
@@ -28891,27 +28894,27 @@
         <v>17</v>
       </c>
       <c r="CD102" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="103" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:82">
       <c r="A103" t="s">
         <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D103" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G103" t="s">
         <v>140</v>
@@ -29139,27 +29142,27 @@
         <v>17</v>
       </c>
       <c r="CD103" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="104" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:82">
       <c r="A104" t="s">
         <v>135</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D104" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E104" t="s">
         <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G104" t="s">
         <v>140</v>
@@ -29387,27 +29390,27 @@
         <v>17</v>
       </c>
       <c r="CD104" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:82">
       <c r="A105" t="s">
         <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E105" t="s">
         <v>17</v>
       </c>
       <c r="F105" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G105" t="s">
         <v>140</v>
@@ -29422,7 +29425,7 @@
         <v>143</v>
       </c>
       <c r="K105" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -29437,7 +29440,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q105" t="s">
         <v>17</v>
@@ -29635,27 +29638,27 @@
         <v>17</v>
       </c>
       <c r="CD105" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:82">
       <c r="A106" t="s">
         <v>135</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D106" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G106" t="s">
         <v>140</v>
@@ -29670,7 +29673,7 @@
         <v>143</v>
       </c>
       <c r="K106" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L106" t="s">
         <v>17</v>
@@ -29883,27 +29886,27 @@
         <v>17</v>
       </c>
       <c r="CD106" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="107" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:82">
       <c r="A107" t="s">
         <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D107" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E107" t="s">
         <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G107" t="s">
         <v>140</v>
@@ -29918,7 +29921,7 @@
         <v>143</v>
       </c>
       <c r="K107" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -30131,27 +30134,27 @@
         <v>17</v>
       </c>
       <c r="CD107" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:82">
       <c r="A108" t="s">
         <v>135</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D108" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G108" t="s">
         <v>140</v>
@@ -30166,7 +30169,7 @@
         <v>143</v>
       </c>
       <c r="K108" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -30379,27 +30382,27 @@
         <v>17</v>
       </c>
       <c r="CD108" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="109" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:82">
       <c r="A109" t="s">
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D109" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G109" t="s">
         <v>140</v>
@@ -30414,7 +30417,7 @@
         <v>143</v>
       </c>
       <c r="K109" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -30627,27 +30630,27 @@
         <v>17</v>
       </c>
       <c r="CD109" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="110" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:82">
       <c r="A110" t="s">
         <v>135</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D110" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E110" t="s">
         <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G110" t="s">
         <v>140</v>
@@ -30662,7 +30665,7 @@
         <v>143</v>
       </c>
       <c r="K110" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -30875,27 +30878,27 @@
         <v>17</v>
       </c>
       <c r="CD110" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:82">
       <c r="A111" t="s">
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D111" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E111" t="s">
         <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G111" t="s">
         <v>140</v>
@@ -30910,7 +30913,7 @@
         <v>143</v>
       </c>
       <c r="K111" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -31123,27 +31126,27 @@
         <v>17</v>
       </c>
       <c r="CD111" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:82">
       <c r="A112" t="s">
         <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D112" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E112" t="s">
         <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G112" t="s">
         <v>140</v>
@@ -31158,7 +31161,7 @@
         <v>143</v>
       </c>
       <c r="K112" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -31371,27 +31374,27 @@
         <v>17</v>
       </c>
       <c r="CD112" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:82">
       <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D113" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G113" t="s">
         <v>140</v>
@@ -31406,7 +31409,7 @@
         <v>143</v>
       </c>
       <c r="K113" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -31619,27 +31622,27 @@
         <v>17</v>
       </c>
       <c r="CD113" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:82">
       <c r="A114" t="s">
         <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D114" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G114" t="s">
         <v>140</v>
@@ -31867,27 +31870,27 @@
         <v>17</v>
       </c>
       <c r="CD114" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:82">
       <c r="A115" t="s">
         <v>135</v>
       </c>
       <c r="B115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C115" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D115" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G115" t="s">
         <v>140</v>
@@ -31902,7 +31905,7 @@
         <v>143</v>
       </c>
       <c r="K115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -32115,27 +32118,27 @@
         <v>17</v>
       </c>
       <c r="CD115" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="116" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:82">
       <c r="A116" t="s">
         <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C116" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G116" t="s">
         <v>140</v>
@@ -32150,7 +32153,7 @@
         <v>143</v>
       </c>
       <c r="K116" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -32363,27 +32366,27 @@
         <v>17</v>
       </c>
       <c r="CD116" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:82">
       <c r="A117" t="s">
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C117" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E117" t="s">
         <v>17</v>
       </c>
       <c r="F117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G117" t="s">
         <v>140</v>
@@ -32611,27 +32614,27 @@
         <v>17</v>
       </c>
       <c r="CD117" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:82">
       <c r="A118" t="s">
         <v>135</v>
       </c>
       <c r="B118" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G118" t="s">
         <v>140</v>
@@ -32646,7 +32649,7 @@
         <v>143</v>
       </c>
       <c r="K118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L118" t="s">
         <v>17</v>
@@ -32859,27 +32862,27 @@
         <v>17</v>
       </c>
       <c r="CD118" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:82">
       <c r="A119" t="s">
         <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C119" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D119" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G119" t="s">
         <v>140</v>
@@ -33107,27 +33110,27 @@
         <v>17</v>
       </c>
       <c r="CD119" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="120" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:82">
       <c r="A120" t="s">
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C120" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D120" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E120" t="s">
         <v>17</v>
       </c>
       <c r="F120" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G120" t="s">
         <v>140</v>
@@ -33175,7 +33178,7 @@
         <v>17</v>
       </c>
       <c r="V120" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="W120" t="s">
         <v>276</v>
@@ -33196,7 +33199,7 @@
         <v>17</v>
       </c>
       <c r="AC120" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AD120" t="s">
         <v>278</v>
@@ -33217,7 +33220,7 @@
         <v>17</v>
       </c>
       <c r="AJ120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AK120" t="s">
         <v>278</v>
@@ -33238,7 +33241,7 @@
         <v>17</v>
       </c>
       <c r="AQ120" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AR120" t="s">
         <v>276</v>
@@ -33355,27 +33358,27 @@
         <v>17</v>
       </c>
       <c r="CD120" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="121" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:82">
       <c r="A121" t="s">
         <v>135</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D121" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G121" t="s">
         <v>140</v>
@@ -33603,27 +33606,27 @@
         <v>17</v>
       </c>
       <c r="CD121" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="122" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:82">
       <c r="A122" t="s">
         <v>135</v>
       </c>
       <c r="B122" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C122" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D122" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E122" t="s">
         <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G122" t="s">
         <v>140</v>
@@ -33851,27 +33854,27 @@
         <v>17</v>
       </c>
       <c r="CD122" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:82">
       <c r="A123" t="s">
         <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E123" t="s">
         <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G123" t="s">
         <v>140</v>
@@ -34099,27 +34102,27 @@
         <v>17</v>
       </c>
       <c r="CD123" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="124" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:82">
       <c r="A124" t="s">
         <v>135</v>
       </c>
       <c r="B124" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C124" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E124" t="s">
         <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G124" t="s">
         <v>140</v>
@@ -34347,27 +34350,27 @@
         <v>17</v>
       </c>
       <c r="CD124" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:82">
       <c r="A125" t="s">
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C125" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E125" t="s">
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G125" t="s">
         <v>140</v>
@@ -34595,27 +34598,27 @@
         <v>17</v>
       </c>
       <c r="CD125" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="126" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:82">
       <c r="A126" t="s">
         <v>135</v>
       </c>
       <c r="B126" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E126" t="s">
         <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G126" t="s">
         <v>140</v>
@@ -34843,27 +34846,27 @@
         <v>17</v>
       </c>
       <c r="CD126" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="127" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:82">
       <c r="A127" t="s">
         <v>135</v>
       </c>
       <c r="B127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C127" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D127" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E127" t="s">
         <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G127" t="s">
         <v>140</v>
@@ -35091,27 +35094,27 @@
         <v>17</v>
       </c>
       <c r="CD127" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:82">
       <c r="A128" t="s">
         <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C128" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G128" t="s">
         <v>140</v>
@@ -35243,10 +35246,10 @@
         <v>17</v>
       </c>
       <c r="AX128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AY128" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AZ128" t="s">
         <v>17</v>
@@ -35264,7 +35267,7 @@
         <v>17</v>
       </c>
       <c r="BE128" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BF128" t="s">
         <v>230</v>
@@ -35285,7 +35288,7 @@
         <v>17</v>
       </c>
       <c r="BL128" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="BM128" t="s">
         <v>230</v>
@@ -35306,10 +35309,10 @@
         <v>17</v>
       </c>
       <c r="BS128" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="BT128" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="BU128" t="s">
         <v>17</v>
@@ -35339,27 +35342,27 @@
         <v>17</v>
       </c>
       <c r="CD128" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="129" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:82">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C129" s="53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D129" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G129" t="s">
         <v>140</v>
@@ -35587,10 +35590,11 @@
         <v>17</v>
       </c>
       <c r="CD129" s="54" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CD129" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -35603,7 +35607,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
@@ -35707,7 +35711,7 @@
     <col min="102" max="102" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" ht="30">
       <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
@@ -35721,7 +35725,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -35735,13 +35739,13 @@
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102">
       <c r="A3" s="34" t="s">
         <v>27</v>
       </c>
@@ -35749,13 +35753,13 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" ht="30">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -35763,111 +35767,111 @@
         <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" ht="15.75">
       <c r="A5" s="44" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D5" s="45" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J5" s="46" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K5" s="47" t="s">
         <v>291</v>
       </c>
       <c r="L5" s="47" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N5" s="47" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R5" s="47" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="U5" s="45" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V5" s="45" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="W5" s="45" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="X5" s="45" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Y5" s="45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z5" s="45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AA5" s="45" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AB5" s="45" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AC5" s="45" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AD5" s="45" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AE5" s="45" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF5" s="45" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG5" s="45" t="s">
         <v>301</v>
@@ -35876,211 +35880,211 @@
         <v>138</v>
       </c>
       <c r="AI5" s="45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ5" s="45" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK5" s="45" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM5" s="45" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AN5" s="45" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO5" s="45" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AP5" s="45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AQ5" s="45" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AR5" s="45" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS5" s="45" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AT5" s="45" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AU5" s="45" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AV5" s="45" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AW5" s="45" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AX5" s="45" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AY5" s="45" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AZ5" s="45" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BA5" s="45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BB5" s="45" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BC5" s="45" t="s">
         <v>248</v>
       </c>
       <c r="BD5" s="45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="BE5" s="45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BF5" s="45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="BG5" s="45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BH5" s="45" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BI5" s="45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="BJ5" s="48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="BK5" s="48" t="s">
         <v>204</v>
       </c>
       <c r="BL5" s="48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BM5" s="48" t="s">
         <v>301</v>
       </c>
       <c r="BN5" s="48" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BO5" s="48" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BP5" s="48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="BQ5" s="48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BR5" s="48" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BS5" s="48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BT5" s="48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="BU5" s="48" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BV5" s="48" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BW5" s="48" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="BX5" s="48" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="BY5" s="48" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="BZ5" s="48" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CA5" s="48" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CB5" s="45" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CC5" s="45" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="CD5" s="45" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CE5" s="45" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="CF5" s="45" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CG5" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="CH5" s="45" t="s">
         <v>462</v>
       </c>
-      <c r="CH5" s="45" t="s">
-        <v>461</v>
-      </c>
       <c r="CI5" s="45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="CJ5" s="45" t="s">
         <v>248</v>
       </c>
       <c r="CK5" s="45" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CL5" s="45" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="CM5" s="49" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CN5" s="49" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CO5" s="49" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CP5" s="49" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="CQ5" s="49" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="CR5" s="49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CS5" s="49" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CT5" s="49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CU5" s="49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="CV5" s="50" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CW5" t="s">
-        <v>519</v>
+        <v>307</v>
       </c>
       <c r="CX5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102">
       <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
